--- a/Result/check3/2025-04-16.xlsx
+++ b/Result/check3/2025-04-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV51"/>
+  <dimension ref="A1:AV50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,17 +733,17 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>-1.99</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>819</t>
+          <t>1476</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -758,7 +758,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>3.99</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>15.76</t>
+          <t>16.23</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.38</t>
+          <t>28.47</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>44664</t>
+          <t>45995</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1115</t>
+          <t>1129</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>8.41</t>
+          <t>-7.45</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1030,7 +1030,7 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.03</t>
+          <t>4.23</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>7.48</t>
+          <t>7.13</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>66.13</t>
+          <t>66.84</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3637</t>
+          <t>3467</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-3.59</t>
+          <t>5.78</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>34</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>13014</t>
+          <t>5742</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.68</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.63</t>
+          <t>10.10</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.76</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>28.96</t>
+          <t>31.84</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2896</t>
+          <t>3184</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,84 +1459,84 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>-3.91</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>-4.66</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>66.0</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>924</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>1.52</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>-3.91</t>
-        </is>
-      </c>
-      <c r="V5" t="inlineStr">
-        <is>
-          <t>-4.66</t>
-        </is>
-      </c>
-      <c r="W5" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>66.0</t>
-        </is>
-      </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA5" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>69.48</t>
+          <t>69.91</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8365</t>
+          <t>8484</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>-11.42</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>1127</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>-3.40</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>46.03</t>
+          <t>41.54</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>7537</t>
+          <t>6802</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>8.96</t>
+          <t>8.3</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>1608</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>9.41</t>
+          <t>-10.47</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>2.29</t>
+          <t>2.31</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>39.3</t>
+          <t>39.01</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>34.67</t>
+          <t>34.74</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>4645</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2185,17 +2185,17 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.1</t>
+          <t>2.13</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>745</t>
+          <t>1576</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -2210,14 +2210,14 @@
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>-0.58</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
       <c r="S8" t="inlineStr">
         <is>
           <t>-0.07</t>
@@ -2270,7 +2270,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>2.84</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>28.14</t>
+          <t>29.07</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
@@ -2325,12 +2325,12 @@
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>117.81</t>
+          <t>118.76</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>10049</t>
+          <t>10380</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
@@ -2427,17 +2427,17 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>2.13</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2616</t>
+          <t>1314</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -2447,12 +2447,12 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -2512,7 +2512,7 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2542,7 +2542,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>15.38</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
@@ -2567,12 +2567,12 @@
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>349379</t>
+          <t>350308</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>6560</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>8.21</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>515.0</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-5.55</t>
+          <t>7.02</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>2.63</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>21.01</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>97.2</t>
+          <t>33.6</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>970</t>
+          <t>641</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>7.15</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-11.21</t>
+          <t>-0.51</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-11.35</t>
+          <t>-0.95</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>202.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>70.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>70</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>139800.0</t>
+          <t>29687.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>神盾</t>
+          <t>欣普羅</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
@@ -2799,42 +2799,42 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>41.31%</t>
+          <t>40.47%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>-30.19%</t>
+          <t>-16.85%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>891</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>商品銷售88.68%、授權8.52%、勞務2.79% (2024年)</t>
+          <t>攝影機92.58%、其他7.42% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>神盾-半導體業-上櫃</t>
+          <t>欣普羅-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>71.72</t>
+          <t>17.26</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 資通訊安全 - 端點安全防護、身分認證與訪問管理** 半導體 - 消費性IC</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -2911,17 +2911,17 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.9</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1457</t>
+          <t>718</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>55.56</t>
+          <t>56.06</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
@@ -3051,12 +3051,12 @@
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>147998</t>
+          <t>149344</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>9.04</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>5568</t>
+          <t>4785</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>10.60</t>
+          <t>-4.28</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3208,7 +3208,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>77.67</t>
+          <t>72.42</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>144.82</t>
+          <t>144.02</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>177831</t>
+          <t>165821</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3313,7 +3313,7 @@
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>-11.11</t>
+          <t>-9.47</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>4279</t>
+          <t>729</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>-22.12</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>31.94</t>
+          <t>32.28</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>1299</t>
+          <t>1318</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,84 +3637,84 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
+          <t>-1.12</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>825</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-1.96</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>1658</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-3.21</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-3.60</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB14" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>8.31</t>
+          <t>8.4</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>11.3</t>
+          <t>11.17</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>15793</t>
+          <t>15618</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>-8.11</t>
+          <t>1.66</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>101264</t>
+          <t>80371</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>-13.54</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>2.28</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>39.22</t>
+          <t>43.12</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>26.22</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>3095</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>4018</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4146,7 +4146,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>1.06</t>
+          <t>-0.21</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.2</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>18.89</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>363859</t>
+          <t>362336</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4368,12 +4368,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>5941</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.53</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4503,7 +4503,7 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>-11.04</t>
+          <t>-1.01</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>1838</t>
+          <t>715</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>-13.27</t>
+          <t>8.83</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4660,7 +4660,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>18.77</t>
+          <t>20.63</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>4606</t>
+          <t>5063</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,99 +4847,99 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-0.18</t>
+          <t>2.58</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>1301</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>-2.55</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>-0.04</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>-0.78</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>-0.91</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>2025-04-19</t>
+        </is>
+      </c>
+      <c r="AD19" t="inlineStr">
+        <is>
           <t>7</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>679</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>-3.36</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="U19" t="inlineStr">
-        <is>
-          <t>-0.78</t>
-        </is>
-      </c>
-      <c r="V19" t="inlineStr">
-        <is>
-          <t>-0.91</t>
-        </is>
-      </c>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t>4.0</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>7.0</t>
-        </is>
-      </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD19" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
       <c r="AE19" t="inlineStr">
         <is>
           <t>34393.0</t>
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2074</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5094,12 +5094,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>858</t>
+          <t>972</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>1.30</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5229,7 +5229,7 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>144.82</t>
+          <t>144.02</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>2493</t>
+          <t>2437</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>4.31</t>
+          <t>4.44</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5386,7 +5386,7 @@
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>69.26</t>
+          <t>69.44</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>2678</t>
+          <t>2774</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.3</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>21</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>4266</t>
+          <t>3243</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>15.06</t>
+          <t>15.24</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>17610</t>
+          <t>17824</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>977</t>
+          <t>935</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.14</t>
+          <t>-1.28</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>1.54</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>39.2</t>
+          <t>38.95</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>134346</t>
+          <t>133488</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>2.74</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>6</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>755</t>
+          <t>548</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.47</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0.94</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>95.65</t>
+          <t>96.46</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>175460</t>
+          <t>176954</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-1.39</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>751</t>
+          <t>1018</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-0.48</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>7.84</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>6.43</t>
+          <t>6.52</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>4021</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-1.58</t>
+          <t>7.6</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>1162</t>
+          <t>1951</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-5.33</t>
+          <t>9.25</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>64.79</t>
+          <t>66.65</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>1143</t>
+          <t>1256</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>-0.98</t>
+          <t>-1.12</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>5325</t>
+          <t>4733</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>5.61</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>16.06</t>
+          <t>16.04</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>59.32</t>
+          <t>59.01</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>34949</t>
+          <t>34900</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -7025,17 +7025,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>0.8</t>
+          <t>5.05</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>1,015</t>
+          <t>1,284</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>48435</t>
+          <t>73075</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>3.78</t>
+          <t>3.62</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>16.67</t>
+          <t>17.41</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>290891</t>
+          <t>303916</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
@@ -7277,7 +7277,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>1094</t>
+          <t>596</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-3.02</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -7352,7 +7352,7 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.15</t>
+          <t>4.08</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -7392,7 +7392,7 @@
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>24.53</t>
+          <t>24.95</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
@@ -7407,12 +7407,12 @@
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>28.32</t>
+          <t>28.45</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>3774</t>
+          <t>3839</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
@@ -7509,17 +7509,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-0.59</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>72</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>12534</t>
+          <t>8575</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>1.95</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>1.77</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>25.51</t>
+          <t>25.66</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>129569</t>
+          <t>130334</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7756,12 +7756,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>5186</t>
+          <t>2986</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.18</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7891,7 +7891,7 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>15.11</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-0.77</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>56</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>9887</t>
+          <t>10193</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>3.08</t>
+          <t>3</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>22.45</t>
+          <t>23.06</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>36302</t>
+          <t>37279</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-0.72</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>535</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8350,7 +8350,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -8360,7 +8360,7 @@
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>9.79</t>
+          <t>9.75</t>
         </is>
       </c>
       <c r="AL33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>28.26</t>
+          <t>28.49</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>15603</t>
+          <t>15547</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>859</t>
+          <t>1180</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>5.22</t>
+          <t>5.17</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>21.7</t>
+          <t>21.89</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>12.33</t>
+          <t>12.36</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>20543</t>
+          <t>20721</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>-3.52</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>967</t>
+          <t>503</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-3.24</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>20.49</t>
+          <t>20.43</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>109.35</t>
+          <t>110.71</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>12329</t>
+          <t>12296</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8966,12 +8966,12 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>53</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>2084</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-0.40</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -9101,7 +9101,7 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-5.04</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>23307</t>
+          <t>49207</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-3.91</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>4.7</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>222527</t>
+          <t>233471</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9445,17 +9445,17 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>2299</t>
+          <t>3423</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
@@ -9465,12 +9465,12 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>7.67</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
@@ -9500,7 +9500,7 @@
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -9530,7 +9530,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>3.48</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>34.23</t>
+          <t>37.62</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
@@ -9585,12 +9585,12 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>4267</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
@@ -9687,17 +9687,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-0.16</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>1279</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9712,7 +9712,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>3.93</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>22.07</t>
+          <t>22.28</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>44.14</t>
+          <t>44.08</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>62538</t>
+          <t>63135</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -9929,17 +9929,17 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>-0.48</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>61</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>14017</t>
+          <t>13179</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9949,12 +9949,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>11.62</t>
+          <t>-6.58</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -10069,12 +10069,12 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>73.09</t>
+          <t>72.85</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>18603</t>
+          <t>17832</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -10171,17 +10171,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>1686</t>
+          <t>1122</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>7.59</t>
+          <t>-2.24</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>2198</t>
+          <t>2170</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -10413,17 +10413,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-0.39</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>29</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>4646</t>
+          <t>3413</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10438,7 +10438,7 @@
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>-0.56</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -10468,7 +10468,7 @@
       </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X42" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>3.3</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>18.64</t>
+          <t>18.89</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
@@ -10553,12 +10553,12 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>25.13</t>
+          <t>25.21</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>177789</t>
+          <t>180205</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">
@@ -10655,17 +10655,17 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>154</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>18736</t>
+          <t>13060</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -10675,12 +10675,12 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>2.91</t>
+          <t>1.55</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
@@ -10740,7 +10740,7 @@
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -10770,7 +10770,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>5.65</t>
+          <t>5.64</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -10780,7 +10780,7 @@
       </c>
       <c r="AK43" t="inlineStr">
         <is>
-          <t>14.85</t>
+          <t>14.88</t>
         </is>
       </c>
       <c r="AL43" t="inlineStr">
@@ -10795,12 +10795,12 @@
       </c>
       <c r="AN43" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO43" t="inlineStr">
         <is>
-          <t>888404</t>
+          <t>890336</t>
         </is>
       </c>
       <c r="AP43" t="inlineStr">
@@ -10897,84 +10897,84 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
+          <t>-1.51</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>12605</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>-1.76</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>-0.06</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>-1.94</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>-1.95</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>10583</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>-1.94</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>-1.95</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>-50.0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB44" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -10982,7 +10982,7 @@
       </c>
       <c r="AC44" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD44" t="inlineStr">
@@ -11012,7 +11012,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -11022,7 +11022,7 @@
       </c>
       <c r="AK44" t="inlineStr">
         <is>
-          <t>19.9</t>
+          <t>19.61</t>
         </is>
       </c>
       <c r="AL44" t="inlineStr">
@@ -11037,12 +11037,12 @@
       </c>
       <c r="AN44" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO44" t="inlineStr">
         <is>
-          <t>144934</t>
+          <t>142782</t>
         </is>
       </c>
       <c r="AP44" t="inlineStr">
@@ -11139,17 +11139,17 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>-0.79</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>7503</t>
+          <t>4643</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
@@ -11164,7 +11164,7 @@
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>-0.78</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="AC45" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD45" t="inlineStr">
@@ -11254,7 +11254,7 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>5.12</t>
+          <t>5.06</t>
         </is>
       </c>
       <c r="AJ45" t="inlineStr">
@@ -11264,7 +11264,7 @@
       </c>
       <c r="AK45" t="inlineStr">
         <is>
-          <t>16.98</t>
+          <t>17.15</t>
         </is>
       </c>
       <c r="AL45" t="inlineStr">
@@ -11279,12 +11279,12 @@
       </c>
       <c r="AN45" t="inlineStr">
         <is>
-          <t>86.58</t>
+          <t>88.11</t>
         </is>
       </c>
       <c r="AO45" t="inlineStr">
         <is>
-          <t>206793</t>
+          <t>208905</t>
         </is>
       </c>
       <c r="AP45" t="inlineStr">
@@ -11381,17 +11381,17 @@
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>1049</t>
+          <t>758</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -11401,12 +11401,12 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>-2.92</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
@@ -11466,7 +11466,7 @@
       </c>
       <c r="AC46" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD46" t="inlineStr">
@@ -11496,7 +11496,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>2.2</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
@@ -11506,7 +11506,7 @@
       </c>
       <c r="AK46" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>26.41</t>
         </is>
       </c>
       <c r="AL46" t="inlineStr">
@@ -11521,12 +11521,12 @@
       </c>
       <c r="AN46" t="inlineStr">
         <is>
-          <t>18.47</t>
+          <t>18.45</t>
         </is>
       </c>
       <c r="AO46" t="inlineStr">
         <is>
-          <t>12823</t>
+          <t>12542</t>
         </is>
       </c>
       <c r="AP46" t="inlineStr">
@@ -11623,17 +11623,17 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>-3.21</t>
+          <t>-3.81</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>3971</t>
+          <t>1472</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>-2.32</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -11763,12 +11763,12 @@
       </c>
       <c r="AN47" t="inlineStr">
         <is>
-          <t>16.21</t>
+          <t>16.41</t>
         </is>
       </c>
       <c r="AO47" t="inlineStr">
         <is>
-          <t>19869</t>
+          <t>19753</t>
         </is>
       </c>
       <c r="AP47" t="inlineStr">
@@ -11865,84 +11865,84 @@
       </c>
       <c r="L48" t="inlineStr">
         <is>
+          <t>-1.37</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>983</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>-1.64</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>1310</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0.97</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB48" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -11950,7 +11950,7 @@
       </c>
       <c r="AC48" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD48" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="AJ48" t="inlineStr">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="AK48" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>10.31</t>
         </is>
       </c>
       <c r="AL48" t="inlineStr">
@@ -12010,7 +12010,7 @@
       </c>
       <c r="AO48" t="inlineStr">
         <is>
-          <t>30856</t>
+          <t>30439</t>
         </is>
       </c>
       <c r="AP48" t="inlineStr">
@@ -12107,17 +12107,17 @@
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>48</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>3793</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
@@ -12132,7 +12132,7 @@
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-5.72</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
@@ -12192,7 +12192,7 @@
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
@@ -12222,7 +12222,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>8.89</t>
+          <t>8.81</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -12232,7 +12232,7 @@
       </c>
       <c r="AK49" t="inlineStr">
         <is>
-          <t>36.29</t>
+          <t>36.61</t>
         </is>
       </c>
       <c r="AL49" t="inlineStr">
@@ -12247,12 +12247,12 @@
       </c>
       <c r="AN49" t="inlineStr">
         <is>
-          <t>47.12</t>
+          <t>46.77</t>
         </is>
       </c>
       <c r="AO49" t="inlineStr">
         <is>
-          <t>4392</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="AP49" t="inlineStr">
@@ -12349,17 +12349,17 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>-0.7</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>1443</t>
+          <t>549</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
@@ -12374,7 +12374,7 @@
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>1.91</t>
+          <t>-0.47</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
@@ -12434,7 +12434,7 @@
       </c>
       <c r="AC50" t="inlineStr">
         <is>
-          <t>2025-04-18</t>
+          <t>2025-04-19</t>
         </is>
       </c>
       <c r="AD50" t="inlineStr">
@@ -12464,7 +12464,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -12474,7 +12474,7 @@
       </c>
       <c r="AK50" t="inlineStr">
         <is>
-          <t>11.24</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="AL50" t="inlineStr">
@@ -12489,12 +12489,12 @@
       </c>
       <c r="AN50" t="inlineStr">
         <is>
-          <t>37.56</t>
+          <t>37.92</t>
         </is>
       </c>
       <c r="AO50" t="inlineStr">
         <is>
-          <t>57017</t>
+          <t>56618</t>
         </is>
       </c>
       <c r="AP50" t="inlineStr">
@@ -12530,248 +12530,6 @@
       <c r="AV50" t="inlineStr">
         <is>
           <t>** 製藥 - 中、西藥製劑** 食品生技 - 加工製成品、保健食品代理銷售及通路</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1455</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>762.066</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>2.36</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>2.97</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>9.2</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>-0.04</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>-0.28</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>-0.30</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>2025-04-18</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>14016352.0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>集盛</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>紡織纖維</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AJ51" t="inlineStr">
-        <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="AK51" t="inlineStr">
-        <is>
-          <t>922.0</t>
-        </is>
-      </c>
-      <c r="AL51" t="inlineStr">
-        <is>
-          <t>-1.75%</t>
-        </is>
-      </c>
-      <c r="AM51" t="inlineStr">
-        <is>
-          <t>-5.86%</t>
-        </is>
-      </c>
-      <c r="AN51" t="inlineStr">
-        <is>
-          <t>55.85</t>
-        </is>
-      </c>
-      <c r="AO51" t="inlineStr">
-        <is>
-          <t>4902</t>
-        </is>
-      </c>
-      <c r="AP51" t="inlineStr">
-        <is>
-          <t>尼龍粒51.72%、加工絲(DTY)31.34%、尼龍絲9.34%、複合材料6.46%、試車0.81%、水材0.15%、聚酯絲0.11%、原物料轉售0.06%、客戶委託代工(OEM)0.02% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ51" t="inlineStr">
-        <is>
-          <t>集盛-紡織纖維-上市</t>
-        </is>
-      </c>
-      <c r="AR51" t="inlineStr">
-        <is>
-          <t>紡織纖維右下</t>
-        </is>
-      </c>
-      <c r="AS51" t="inlineStr">
-        <is>
-          <t>11.86</t>
-        </is>
-      </c>
-      <c r="AT51" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU51" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV51" t="inlineStr">
-        <is>
-          <t>** 紡織 - 人造纖維產品(例如尼龍纖維、聚酯纖維、嫘縈纖維等)</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-04-16.xlsx
+++ b/Result/check3/2025-04-16.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>717</t>
+          <t>1385</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>-0.65</t>
+          <t>-2.30</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>27.85</t>
+          <t>28.52</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
@@ -975,17 +975,17 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-12.5</t>
+          <t>-5.41</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>626</t>
+          <t>793</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -995,54 +995,54 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-2.94</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.69</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
           <t>1.0</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-5.00</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>-2.94</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>-3.69</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>-40.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>68.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="Z3" t="inlineStr">
         <is>
           <t>False</t>
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.81</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>6.27</t>
+          <t>6.69</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>63.79</t>
+          <t>65.34</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3051</t>
+          <t>3256</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-1.08</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>12736</t>
+          <t>6793</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.73</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>-6.46</t>
+          <t>8.66</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.7</t>
+          <t>2.45</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>29.68</t>
+          <t>32.64</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>2968</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>-2.94</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>1041</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-2.07</t>
+          <t>-3.46</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>67.32</t>
+          <t>68.52</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8028</t>
+          <t>8126</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1701,17 +1701,17 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>-6.77</t>
+          <t>-3.18</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>732</t>
+          <t>721</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.1</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-2.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1786,7 +1786,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.09</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -1826,7 +1826,7 @@
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>26.65</t>
+          <t>27.58</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
@@ -1841,12 +1841,12 @@
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>112.33</t>
+          <t>122.18</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>9515</t>
+          <t>9846</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
@@ -1943,17 +1943,17 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>-3.95</t>
+          <t>3.16</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2162</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1963,12 +1963,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-1.67</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
@@ -2058,7 +2058,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.89</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2068,7 +2068,7 @@
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>14.44</t>
+          <t>15.5</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
@@ -2083,12 +2083,12 @@
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>328937</t>
+          <t>353096</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1486.633</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,17 +2155,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>26.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -2175,7 +2175,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>490.0</t>
+          <t>631.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,42 +2185,42 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>-1.45</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1061</t>
+          <t>792</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>-2.69</t>
+          <t>6.12</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -2230,27 +2230,27 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-31.22</t>
+          <t>-39.56</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-32.10</t>
+          <t>-40.58</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2270,87 +2270,87 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>1252735234.0</t>
+          <t>774889.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>藥華藥</t>
+          <t>精測</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>54.21</t>
+          <t>43.47</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>88.38%</t>
+          <t>55.73%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>17.68%</t>
+          <t>27.41%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>144410</t>
+          <t>22165</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>藥品銷售99.38%、其他0.33%、勞務0.30% (2024年)</t>
+          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>藥華藥-生技醫療業-上市</t>
+          <t>精測-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>245.11</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3398.195</t>
+          <t>1486.633</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,27 +2397,27 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>417.5</t>
+          <t>490.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,72 +2427,72 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>-0.6</t>
+          <t>1.61</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>31</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>3078</t>
+          <t>1014</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>-2.24</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-7.15</t>
+          <t>-31.22</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-9.96</t>
+          <t>-32.10</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2507,32 +2507,32 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>2439779131.0</t>
+          <t>1252735234.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>藥華藥</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
@@ -2542,57 +2542,57 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>70.22</t>
+          <t>55.89</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>88.38%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>17.68%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>134.67</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>160784</t>
+          <t>148895</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>藥品銷售99.38%、其他0.33%、勞務0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>藥華藥-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 製藥 - 原材料</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1434.358</t>
+          <t>3398.195</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,142 +2639,142 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>29.97</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>417.5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>1.3</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>4565</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>-2.71</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>-7.15</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>-9.96</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>47.15</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>-5.96</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>524</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>1.07</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>-0.21</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>-4.20</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>-4.31</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA10" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>83360188.0</t>
+          <t>2439779131.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>華孚</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>2.74</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>14.98</t>
+          <t>71.57</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>24.51%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>142.58</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>8892</t>
+          <t>163884</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>鎂,鋁合金成型製品及模具98.24%、塑膠射出1.76% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>華孚-電腦及週邊設備業-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼、金屬、塑膠模具** 石化及塑橡膠 - 塑膠製品</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>6148</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>7.67</t>
+          <t>9.37</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>4407.152</t>
+          <t>34050.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,202 +2881,202 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>10.40</t>
+          <t>33.62</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>65.3</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-0.46</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>8778</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>72.2</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-5.87</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>779</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>-2.49</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-3.21</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-3.60</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>58.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>17.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>420246098.0</t>
+          <t>2449153.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>豐藝</t>
+          <t>驊宏資</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>資訊服務業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>8.8</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>37.19</t>
+          <t>4.79</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>42.21</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>7.09%</t>
+          <t>23.65%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>2.71%</t>
+          <t>6.98%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>26.45</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>14918</t>
+          <t>3029</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>特定應用晶片31.63%、線性、分散式元件29.91%、影像處理IC19.12%、特定應用液晶面板產品14.64%、其他4.70% (2024年)</t>
+          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>豐藝-電子通路業-上市</t>
+          <t>驊宏資-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>資訊服務業右上</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>29.15</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路** 電腦及週邊設備 - 晶片組、面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
+          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
         </is>
       </c>
     </row>
@@ -3103,17 +3103,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6136</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>34050.0</t>
+          <t>381.079</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -3123,27 +3123,27 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>33.62</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -3153,72 +3153,72 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>-10.49</t>
+          <t>6.19</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>9</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>19287</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-9.81</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -3233,92 +3233,92 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>2449153.0</t>
+          <t>-10553792.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>富爾特</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>資訊服務業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>2.34</t>
+          <t>4.59</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>38.38</t>
+          <t>27.83</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>20.77%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>-5.76%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>25.36</t>
+          <t>98.29</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2754</t>
+          <t>2894</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>富爾特-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 通信網路 - 電信服務業</t>
         </is>
       </c>
     </row>
@@ -3345,222 +3345,222 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>6136</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>-0.42</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9781.342</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>381.079</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>23.85</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>5610</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>-0.00</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>-0.20</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>-0.23</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>-99.0</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>23.5</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>2025-04-15</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>-109742417.0</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>合庫金</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>3.29</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>699</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>3.86</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="W13" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y13" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA13" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="AD13" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="AE13" t="inlineStr">
-        <is>
-          <t>-10553792.0</t>
-        </is>
-      </c>
-      <c r="AF13" t="inlineStr">
-        <is>
-          <t>富爾特</t>
-        </is>
-      </c>
-      <c r="AG13" t="inlineStr">
-        <is>
-          <t>通信網路業</t>
-        </is>
-      </c>
-      <c r="AH13" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI13" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>27.0</t>
-        </is>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>20.77%</t>
-        </is>
-      </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>-5.76%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>95.08</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>2808</t>
+          <t>364620</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>富爾特-通信網路業-上市</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>30.17</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 通信網路 - 電信服務業</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>9781.342</t>
+          <t>11791.128</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,202 +3607,202 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-1.71</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6191</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>-2.46</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>0.57</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>12.84</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>23.85</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>-362015022.0</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>5379</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>1.43</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>-0.20</t>
-        </is>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>-0.23</t>
-        </is>
-      </c>
-      <c r="W14" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Y14" t="inlineStr">
-        <is>
-          <t>25.0</t>
-        </is>
-      </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA14" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="AD14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="AE14" t="inlineStr">
-        <is>
-          <t>-109742417.0</t>
-        </is>
-      </c>
-      <c r="AF14" t="inlineStr">
-        <is>
-          <t>合庫金</t>
-        </is>
-      </c>
-      <c r="AG14" t="inlineStr">
-        <is>
-          <t>金融保險</t>
-        </is>
-      </c>
-      <c r="AH14" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI14" t="inlineStr">
-        <is>
-          <t>4.18</t>
-        </is>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>18.97</t>
-        </is>
-      </c>
-      <c r="AL14" t="inlineStr">
+      <c r="AM14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AM14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>363859</t>
+          <t>226794</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>11791.128</t>
+          <t>2107.0</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,27 +3849,27 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>47.45</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -3879,172 +3879,172 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>9693</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>-2.04</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>6990</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>0.32</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>90.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>42.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB15" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
-          <t>-362015022.0</t>
+          <t>138155.0</t>
         </is>
       </c>
       <c r="AF15" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG15" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>3.2</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>17.07</t>
+          <t>23.56</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>28.75</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>230683</t>
+          <t>5782</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2107.0</t>
+          <t>354.096</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>49.8</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>7.61</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>10964</t>
+          <t>697</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-2.36</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>-7.72</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-7.99</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>260.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>89.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,92 +4201,92 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>138155.0</t>
+          <t>157050136.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>彩富</t>
+          <t>天鈺</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>其他電子業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.34</t>
+          <t>6.42</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>4.68</t>
+          <t>42.52</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>22.55</t>
+          <t>12.47</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>38.43%</t>
+          <t>26.16%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>27.32</t>
+          <t>142.58</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5536</t>
+          <t>24311</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>天鈺-半導體業-上市</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
         </is>
       </c>
     </row>
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-6.8</t>
+          <t>-6.18</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>1561</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4383,12 +4383,12 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-1.00</t>
+          <t>-2.63</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>67.02</t>
+          <t>68.53</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2480</t>
+          <t>2495</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3705</t>
+          <t>3708</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3.58</t>
+          <t>-1.96</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>7605.676</t>
+          <t>378.552</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,142 +4575,142 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>2.88</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>70.5</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>508</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>-4.33</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>-4.35</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>-95.0</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>66.7</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>-3.25</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>3415</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0.4</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T18" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="U18" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="V18" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="W18" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>71.0</t>
-        </is>
-      </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA18" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>71</t>
+          <t>26</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>418249446.0</t>
+          <t>117497488.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>永信</t>
+          <t>上緯投控</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>綠能環保</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>4.64</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>19.18</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>14.72</t>
+          <t>27.57</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>42.89%</t>
+          <t>23.02%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>14.89%</t>
+          <t>6.15%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>20.23</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>7878</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
+          <t>環保耐蝕材料39.58%、環保綠能材料33.76%、其他25.01%、循環經濟材料1.65% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>永信-生技醫療業-上市</t>
+          <t>上緯投控-綠能環保-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>生技醫療業右上</t>
+          <t>綠能環保右下</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>29.92</t>
+          <t>75.79</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 製藥 - 中、西藥製劑</t>
+          <t>** 風力發電 - 玻/碳纖、樹酯</t>
         </is>
       </c>
     </row>
@@ -4797,17 +4797,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3653</t>
+          <t>3705</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-5.76</t>
+          <t>3.58</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1482.173</t>
+          <t>7605.676</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -4817,27 +4817,27 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>-5.18</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>18.85</t>
+          <t>92.76</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>908.0</t>
+          <t>66.7</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -4847,72 +4847,72 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-5.7</t>
+          <t>-7.58</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>67</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>5980</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>8.97</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1.31</t>
+          <t>0.36</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-6.64</t>
+          <t>-5.16</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>-0.11</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>-90.57</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>-91.08</t>
+          <t>1.18</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>54.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>71.0</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -4927,32 +4927,32 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>71</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>2636515731.0</t>
+          <t>418249446.0</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
         <is>
-          <t>健策</t>
+          <t>永信</t>
         </is>
       </c>
       <c r="AG19" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH19" t="inlineStr">
@@ -4962,57 +4962,57 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
-          <t>30.92</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>35.82</t>
+          <t>14.12</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
         <is>
-          <t>37.73%</t>
+          <t>42.89%</t>
         </is>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
-          <t>27.58%</t>
+          <t>14.89%</t>
         </is>
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>122769</t>
+          <t>16518</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
         <is>
-          <t>散熱產品65.54%、導線架13.64%、其他10.00%、電子零組件8.72%、通訊連接器2.10% (2024年)</t>
+          <t>人用藥品64.11%、動物藥品15.77%、保健食品11.01%、其他9.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ19" t="inlineStr">
         <is>
-          <t>健策-電子零組件業-上市</t>
+          <t>永信-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR19" t="inlineStr">
         <is>
-          <t>電子零組件業平</t>
+          <t>生技醫療業右上</t>
         </is>
       </c>
       <c r="AS19" t="inlineStr">
         <is>
-          <t>101.22</t>
+          <t>29.92</t>
         </is>
       </c>
       <c r="AT19" t="inlineStr">
@@ -5027,7 +5027,7 @@
       </c>
       <c r="AV19" t="inlineStr">
         <is>
-          <t>** 半導體 - 導線架</t>
+          <t>** 製藥 - 中、西藥製劑</t>
         </is>
       </c>
     </row>
@@ -5039,17 +5039,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3686</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-3.99</t>
+          <t>-0.34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>639.0</t>
+          <t>194.469</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -5059,17 +5059,17 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>-3.25</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1.65</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30.24</t>
+          <t>1.64</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>2305.0</t>
+          <t>14.5</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -5089,7 +5089,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>-3.13</t>
+          <t>14.2</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -5099,47 +5099,47 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>48.28</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-3.12</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>-150.50</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>-175.78</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
@@ -5149,12 +5149,12 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>-1.0</t>
+          <t>19.0</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -5174,22 +5174,22 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
         <is>
-          <t>2108426.0</t>
+          <t>6379354.0</t>
         </is>
       </c>
       <c r="AF20" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>達能</t>
         </is>
       </c>
       <c r="AG20" t="inlineStr">
@@ -5199,52 +5199,52 @@
       </c>
       <c r="AH20" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
-          <t>13.54</t>
+          <t>0.28</t>
         </is>
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>90.96</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-0.87%</t>
         </is>
       </c>
       <c r="AM20" t="inlineStr">
         <is>
-          <t>55.99%</t>
+          <t>-30.43%</t>
         </is>
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>57.09</t>
+          <t>142.58</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>166874</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
         <is>
-          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
+          <t>商品銷售100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ20" t="inlineStr">
         <is>
-          <t>力旺-半導體業-上櫃</t>
+          <t>達能-半導體業-上市</t>
         </is>
       </c>
       <c r="AR20" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="AS20" t="inlineStr">
         <is>
-          <t>47.74</t>
+          <t>9.16</t>
         </is>
       </c>
       <c r="AT20" t="inlineStr">
@@ -5269,7 +5269,7 @@
       </c>
       <c r="AV20" t="inlineStr">
         <is>
-          <t>** 半導體 - IP設計/IC設計代工服務</t>
+          <t>** 太陽能產業 - 矽晶圓/矽晶片</t>
         </is>
       </c>
     </row>
@@ -5281,17 +5281,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3297</t>
+          <t>3653</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>-5.76</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1342.0</t>
+          <t>1482.173</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -5301,27 +5301,27 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-6.21</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.78</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>10.21</t>
+          <t>18.85</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.95</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>32.2</t>
+          <t>908.0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -5331,32 +5331,32 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>-8.78</t>
+          <t>1.84</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>596</t>
+          <t>1150</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2.06</t>
+          <t>8.97</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.09</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-6.08</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5366,37 +5366,37 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>-0.11</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>2.72</t>
+          <t>-90.57</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-91.08</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>103.0</t>
+          <t>54.0</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>95.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -5411,92 +5411,92 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>2025-04-02</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE21" t="inlineStr">
         <is>
-          <t>140926.0</t>
+          <t>2636515731.0</t>
         </is>
       </c>
       <c r="AF21" t="inlineStr">
         <is>
-          <t>杭特</t>
+          <t>健策</t>
         </is>
       </c>
       <c r="AG21" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH21" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.57</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>30.92</t>
         </is>
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38.57</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
         <is>
-          <t>33.49%</t>
+          <t>37.73%</t>
         </is>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
-          <t>-25.64%</t>
+          <t>27.58%</t>
         </is>
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>64.28</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>1067</t>
+          <t>132202</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
         <is>
-          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
+          <t>散熱產品65.54%、導線架13.64%、其他10.00%、電子零組件8.72%、通訊連接器2.10% (2024年)</t>
         </is>
       </c>
       <c r="AQ21" t="inlineStr">
         <is>
-          <t>杭特-光電業-上櫃</t>
+          <t>健策-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR21" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電子零組件業平</t>
         </is>
       </c>
       <c r="AS21" t="inlineStr">
         <is>
-          <t>15.63</t>
+          <t>101.22</t>
         </is>
       </c>
       <c r="AT21" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="AV21" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
+          <t>** 半導體 - 導線架</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>-1.38</t>
+          <t>-3.99</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>7227.0</t>
+          <t>639.0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5543,17 +5543,17 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>-2.78</t>
+          <t>-3.25</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>12.12</t>
+          <t>30.24</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -5563,7 +5563,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>72.0</t>
+          <t>2305.0</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -5573,57 +5573,57 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>-7.46</t>
+          <t>6.11</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>14</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>2402</t>
+          <t>515</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>1.86</t>
+          <t>48.28</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-3.43</t>
+          <t>4.47</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0.05</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>-1.03</t>
+          <t>-150.50</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>-1.30</t>
+          <t>-175.78</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
@@ -5633,12 +5633,12 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>15.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>-6.0</t>
+          <t>-1.0</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -5658,22 +5658,22 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>-6</t>
+          <t>-1</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
         <is>
-          <t>1329702.0</t>
+          <t>2108426.0</t>
         </is>
       </c>
       <c r="AF22" t="inlineStr">
         <is>
-          <t>欣銓</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="AG22" t="inlineStr">
@@ -5688,47 +5688,47 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>5.97</t>
+          <t>0.9</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>13.54</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>15.09</t>
+          <t>99.92</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
         <is>
-          <t>27.50%</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="AM22" t="inlineStr">
         <is>
-          <t>16.47%</t>
+          <t>55.99%</t>
         </is>
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>57.09</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>32841</t>
+          <t>183300</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
         <is>
-          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
+          <t>權利金收入68.55%、技術服務31.45% (2024年)</t>
         </is>
       </c>
       <c r="AQ22" t="inlineStr">
         <is>
-          <t>欣銓-半導體業-上櫃</t>
+          <t>力旺-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR22" t="inlineStr">
@@ -5738,7 +5738,7 @@
       </c>
       <c r="AS22" t="inlineStr">
         <is>
-          <t>38.61</t>
+          <t>47.74</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr">
@@ -5753,7 +5753,7 @@
       </c>
       <c r="AV22" t="inlineStr">
         <is>
-          <t>** 半導體 - IC封裝測試</t>
+          <t>** 半導體 - IP設計/IC設計代工服務</t>
         </is>
       </c>
     </row>
@@ -5765,17 +5765,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3356</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-2.8</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>48043.691</t>
+          <t>1415.667</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5785,17 +5785,17 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>-0.69</t>
+          <t>-3.92</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>32.98</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -5805,7 +5805,7 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>99.7</t>
+          <t>51.0</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -5815,32 +5815,32 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>-0.91</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>1,296</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>45329</t>
+          <t>600</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2.17</t>
+          <t>1.76</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>-4.25</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5850,22 +5850,22 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>-4.07</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -5875,12 +5875,12 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>35.0</t>
+          <t>57.0</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -5895,32 +5895,32 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-01-16</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>57</t>
         </is>
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>9401706518.0</t>
+          <t>66997721.0</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>奇偶</t>
         </is>
       </c>
       <c r="AG23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH23" t="inlineStr">
@@ -5930,57 +5930,57 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>7.81</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>102.71</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>16.38</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
         <is>
-          <t>8.09%</t>
+          <t>47.63%</t>
         </is>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
-          <t>3.99%</t>
+          <t>15.71%</t>
         </is>
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>285970</t>
+          <t>4093</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
         <is>
-          <t>C電子產品96.14%、其他3.86% (2024年)</t>
+          <t>數位監控系統及其相關產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ23" t="inlineStr">
         <is>
-          <t>緯創-電腦及週邊設備業-上市</t>
+          <t>奇偶-光電業-上市</t>
         </is>
       </c>
       <c r="AR23" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>光電業平</t>
         </is>
       </c>
       <c r="AS23" t="inlineStr">
         <is>
-          <t>45.89</t>
+          <t>28.95</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr">
@@ -5995,7 +5995,7 @@
       </c>
       <c r="AV23" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
+          <t>** 電腦及週邊設備 - 安全監控系統</t>
         </is>
       </c>
     </row>
@@ -6007,17 +6007,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>3297</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>-4.17</t>
+          <t>-5.34</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>18142.075</t>
+          <t>1342.0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -6027,27 +6027,27 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>-3.05</t>
+          <t>-6.21</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.37</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>23.08</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>85.2</t>
+          <t>32.2</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -6057,172 +6057,172 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-5.19</t>
+          <t>-2.71</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>11446</t>
+          <t>568</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.94</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>-8.82</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>-8.92</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>-100.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>37.0</t>
+          <t>103.0</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
         <is>
+          <t>95.0</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA24" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
         <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>140926.0</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>杭特</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>光電業</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AE24" t="inlineStr">
-        <is>
-          <t>3402537177.0</t>
-        </is>
-      </c>
-      <c r="AF24" t="inlineStr">
-        <is>
-          <t>欣興</t>
-        </is>
-      </c>
-      <c r="AG24" t="inlineStr">
-        <is>
-          <t>電子零組件業</t>
-        </is>
-      </c>
-      <c r="AH24" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI24" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>19.22</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>24.4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
         <is>
-          <t>11.57%</t>
+          <t>33.49%</t>
         </is>
       </c>
       <c r="AM24" t="inlineStr">
         <is>
-          <t>2.31%</t>
+          <t>-25.64%</t>
         </is>
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>68.43</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>123909</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
         <is>
-          <t>印刷電路板(PCB)98.82%、其他1.18% (2024年)</t>
+          <t>網路攝影機72.39%、其他27.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ24" t="inlineStr">
         <is>
-          <t>欣興-電子零組件業-上市</t>
+          <t>杭特-光電業-上櫃</t>
         </is>
       </c>
       <c r="AR24" t="inlineStr">
         <is>
-          <t>電子零組件業右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS24" t="inlineStr">
         <is>
-          <t>61.01</t>
+          <t>15.63</t>
         </is>
       </c>
       <c r="AT24" t="inlineStr">
@@ -6237,7 +6237,7 @@
       </c>
       <c r="AV24" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 硬板、軟板、IC載板製造</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 人工智慧 - 領域解決方案、智慧設備</t>
         </is>
       </c>
     </row>
@@ -6249,17 +6249,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>3264</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>3.43</t>
+          <t>-1.38</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>14172.29</t>
+          <t>7227.0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -6269,17 +6269,17 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>-4.11</t>
+          <t>-2.78</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>37.64</t>
+          <t>12.12</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -6289,7 +6289,7 @@
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>99.5</t>
+          <t>72.0</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -6299,7 +6299,7 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>-2.86</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
@@ -6309,62 +6309,62 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4951</t>
+          <t>4232</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>1.21</t>
+          <t>1.86</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.97</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.21</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>-3.45</t>
+          <t>-1.03</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>-3.72</t>
+          <t>-1.30</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>50.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>44.0</t>
+          <t>15.0</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>-6.0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -6384,87 +6384,87 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>2338804192.0</t>
+          <t>1329702.0</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
         <is>
-          <t>文曄</t>
+          <t>欣銓</t>
         </is>
       </c>
       <c r="AG25" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.71</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
-          <t>209.26</t>
+          <t>6.66</t>
         </is>
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>15.77</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
         <is>
-          <t>4.12%</t>
+          <t>27.50%</t>
         </is>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
-          <t>1.61%</t>
+          <t>16.47%</t>
         </is>
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>14.61</t>
+          <t>59.3</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>114507</t>
+          <t>34312</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
         <is>
-          <t>特定應用積體電路26.39%、特定應用標準產品-無線連接19.20%、特定應用標準產品-有線連接15.93%、類比IC12.39%、微元件積體電路6.11%、記憶體4.27%、分散式元件4.23%、其他3.95%、特定應用標準產品-其他3.23%、光電元件2.33%、被動元件1.89%、勞務0.08% (2024年)</t>
+          <t>晶圓測試69.93%、成品測試29.55%、其他0.52% (2024年)</t>
         </is>
       </c>
       <c r="AQ25" t="inlineStr">
         <is>
-          <t>文曄-電子通路業-上市</t>
+          <t>欣銓-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR25" t="inlineStr">
         <is>
-          <t>電子通路業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS25" t="inlineStr">
         <is>
-          <t>82.21</t>
+          <t>38.61</t>
         </is>
       </c>
       <c r="AT25" t="inlineStr">
@@ -6479,7 +6479,7 @@
       </c>
       <c r="AV25" t="inlineStr">
         <is>
-          <t>** 半導體 - IC通路</t>
+          <t>** 半導體 - IC封裝測試</t>
         </is>
       </c>
     </row>
@@ -6491,17 +6491,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-4.1</t>
+          <t>-2.8</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>10869.195</t>
+          <t>48043.691</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -6511,17 +6511,17 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>-4.20</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2.20</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>7.27</t>
+          <t>32.98</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -6531,7 +6531,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>131.0</t>
+          <t>99.7</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -6541,72 +6541,72 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>-6.5</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>1,079</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>10347</t>
+          <t>41760</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>-5.28</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.20</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>-10.84</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>-11.18</t>
+          <t>-4.07</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
         <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
           <t>65.0</t>
         </is>
       </c>
-      <c r="X26" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>-10.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
@@ -6621,32 +6621,32 @@
       </c>
       <c r="AB26" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
         <is>
-          <t>4074944064.0</t>
+          <t>9401706518.0</t>
         </is>
       </c>
       <c r="AF26" t="inlineStr">
         <is>
-          <t>亞光</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="AG26" t="inlineStr">
         <is>
-          <t>光電業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH26" t="inlineStr">
@@ -6656,57 +6656,57 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
         <is>
-          <t>22.62</t>
+          <t>102.71</t>
         </is>
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>21.24</t>
+          <t>17.0</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
         <is>
-          <t>18.50%</t>
+          <t>8.09%</t>
         </is>
       </c>
       <c r="AM26" t="inlineStr">
         <is>
-          <t>8.25%</t>
+          <t>3.99%</t>
         </is>
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>34347</t>
+          <t>296680</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
         <is>
-          <t>光學元件48.32%、影像感測器18.73%、光電零組件13.15%、數位相機12.93%、光電製品6.87% (2024年)</t>
+          <t>C電子產品96.14%、其他3.86% (2024年)</t>
         </is>
       </c>
       <c r="AQ26" t="inlineStr">
         <is>
-          <t>亞光-光電業-上市</t>
+          <t>緯創-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR26" t="inlineStr">
         <is>
-          <t>光電業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS26" t="inlineStr">
         <is>
-          <t>52.54</t>
+          <t>45.89</t>
         </is>
       </c>
       <c r="AT26" t="inlineStr">
@@ -6721,7 +6721,7 @@
       </c>
       <c r="AV26" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭、印表機、傳真機、掃瞄器、多功能事務機、投影機</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、桌上型電腦、其他電腦及週邊設備</t>
         </is>
       </c>
     </row>
@@ -6733,17 +6733,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2905</t>
+          <t>3037</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>-4.17</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1638.038</t>
+          <t>18142.075</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -6753,142 +6753,142 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>-2.50</t>
+          <t>-3.05</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>0.37</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>17.22</t>
+          <t>23.08</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>85.2</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>31940</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>-8.82</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>-8.92</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>-100.0</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>13.95</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-2.95</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>1054</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>0.69</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>-1.10</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T27" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>-0.55</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>-0.70</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>44.0</t>
-        </is>
-      </c>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA27" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>2025-04-15</t>
-        </is>
-      </c>
-      <c r="AC27" t="inlineStr">
-        <is>
-          <t>2025-04-23</t>
-        </is>
-      </c>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>31415921.0</t>
+          <t>3402537177.0</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
         <is>
-          <t>三商</t>
+          <t>欣興</t>
         </is>
       </c>
       <c r="AG27" t="inlineStr">
         <is>
-          <t>貿易百貨</t>
+          <t>電子零組件業</t>
         </is>
       </c>
       <c r="AH27" t="inlineStr">
@@ -6898,57 +6898,57 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>1.69</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
         <is>
-          <t>37.29</t>
+          <t>19.68</t>
         </is>
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>9.54</t>
+          <t>38.11</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
         <is>
-          <t>-41.74%</t>
+          <t>13.38%</t>
         </is>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
-          <t>-51.81%</t>
+          <t>4.21%</t>
         </is>
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>28.13</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>15210</t>
+          <t>135841</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
         <is>
-          <t>個人健康險33.88%、個人壽險31.14%、民生用品及餐飲零售22.80%、個人傷害險3.29%、投資型保險2.82%、系統整合服務1.52%、維修及保養服務1.34%、金融自動化服務機器0.85%、團體險保費0.81%、原料藥(API)0.67%、中間體0.44%、萬能險0.41%、年金險0.02%、其他0.01% (2023年)</t>
+          <t>印刷電路板(PCB)98.82%、其他1.18% (2024年)</t>
         </is>
       </c>
       <c r="AQ27" t="inlineStr">
         <is>
-          <t>三商-貿易百貨-上市</t>
+          <t>欣興-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR27" t="inlineStr">
         <is>
-          <t>貿易百貨右下</t>
+          <t>電子零組件業右下</t>
         </is>
       </c>
       <c r="AS27" t="inlineStr">
         <is>
-          <t>15.64</t>
+          <t>62.05</t>
         </is>
       </c>
       <c r="AT27" t="inlineStr">
@@ -6963,7 +6963,7 @@
       </c>
       <c r="AV27" t="inlineStr">
         <is>
-          <t>** 貿易百貨 - 零售通路</t>
+          <t>** 印刷電路板 - 硬板、軟板、IC載板製造</t>
         </is>
       </c>
     </row>
@@ -6975,17 +6975,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>3036</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>3.43</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1113.395</t>
+          <t>14172.29</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -6995,17 +6995,17 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-4.11</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>1.63</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>37.64</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -7015,7 +7015,7 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>99.5</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -7025,84 +7025,84 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>4148</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>-1.46</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>-3.45</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>-3.72</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>617</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>-1.31</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>-0.12</t>
-        </is>
-      </c>
-      <c r="V28" t="inlineStr">
-        <is>
-          <t>-0.13</t>
-        </is>
-      </c>
-      <c r="W28" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>9.0</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA28" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB28" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -7110,27 +7110,27 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>57008677.0</t>
+          <t>2338804192.0</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
         <is>
-          <t>高雄銀</t>
+          <t>文曄</t>
         </is>
       </c>
       <c r="AG28" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH28" t="inlineStr">
@@ -7140,57 +7140,57 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.24</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>209.26</t>
         </is>
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>21.6</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4.12%</t>
         </is>
       </c>
       <c r="AM28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.61%</t>
         </is>
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>15.15</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>20453</t>
+          <t>114507</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
         <is>
-          <t>利息淨收益66.79%、手續費淨收益20.57%、透過損益按公允價值衡量之金9.37%、透過其他綜合損益按公允價值3.98%、其他利息以外淨收益1.27%、除列按攤銷後成本衡量金融資1.07% (2024年)</t>
+          <t>特定應用積體電路26.39%、特定應用標準產品-無線連接19.20%、特定應用標準產品-有線連接15.93%、類比IC12.39%、微元件積體電路6.11%、記憶體4.27%、分散式元件4.23%、其他3.95%、特定應用標準產品-其他3.23%、光電元件2.33%、被動元件1.89%、勞務0.08% (2024年)</t>
         </is>
       </c>
       <c r="AQ28" t="inlineStr">
         <is>
-          <t>高雄銀-金融保險-上市</t>
+          <t>文曄-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR28" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AS28" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>82.21</t>
         </is>
       </c>
       <c r="AT28" t="inlineStr">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="AV28" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 半導體 - IC通路</t>
         </is>
       </c>
     </row>
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2646</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-0.8</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>3166.022</t>
+          <t>1113.395</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.60</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.61</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>24.85</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,172 +7267,172 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-5.3</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>3144</t>
+          <t>880</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>-0.12</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>57008677.0</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>高雄銀</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>0.6</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>21.89</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>-1.69</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>-0.00</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>-0.03</t>
-        </is>
-      </c>
-      <c r="T29" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U29" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="V29" t="inlineStr">
-        <is>
-          <t>-0.79</t>
-        </is>
-      </c>
-      <c r="W29" t="inlineStr">
-        <is>
-          <t>-100.0</t>
-        </is>
-      </c>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>16.0</t>
-        </is>
-      </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2025-04-22</t>
-        </is>
-      </c>
-      <c r="AD29" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="AE29" t="inlineStr">
-        <is>
-          <t>-215466944.0</t>
-        </is>
-      </c>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>星宇航空</t>
-        </is>
-      </c>
-      <c r="AG29" t="inlineStr">
-        <is>
-          <t>航運業</t>
-        </is>
-      </c>
-      <c r="AH29" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI29" t="inlineStr">
+      <c r="AM29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="AJ29" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="AK29" t="inlineStr">
-        <is>
-          <t>53.64</t>
-        </is>
-      </c>
-      <c r="AL29" t="inlineStr">
-        <is>
-          <t>17.72%</t>
-        </is>
-      </c>
-      <c r="AM29" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>12.37</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>71006</t>
+          <t>20721</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>航運客運86.44%、航運 -貨運8.87%、其他4.10%、商品銷售0.59% (2024年)</t>
+          <t>利息淨收益66.79%、手續費淨收益20.57%、透過損益按公允價值衡量之金9.37%、透過其他綜合損益按公允價值3.98%、其他利息以外淨收益1.27%、除列按攤銷後成本衡量金融資1.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>星宇航空-航運業-上市</t>
+          <t>高雄銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>航運業右下</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7442,12 +7442,12 @@
       </c>
       <c r="AU29" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 海陸空大眾運輸</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -7509,17 +7509,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-3.61</t>
+          <t>-2.08</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>80</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>20668</t>
+          <t>17507</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-1.36</t>
+          <t>-0.61</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7564,7 +7564,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>4.35</t>
+          <t>4.29</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>225614</t>
+          <t>228982</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7751,17 +7751,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-8.7</t>
+          <t>-6.38</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1575</t>
+          <t>1201</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7771,12 +7771,12 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-2.89</t>
+          <t>-1.77</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>3.55</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>32.86</t>
+          <t>33.57</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>15.71</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4096</t>
+          <t>4186</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>1.72</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>2265</t>
+          <t>1563</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>4.01</t>
+          <t>3.9</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>22.49</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>43.77</t>
+          <t>44.63</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>62041</t>
+          <t>63732</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>-2.96</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>3310</t>
+          <t>2355</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8255,12 +8255,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>71.93</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>17403</t>
+          <t>18603</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>634</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8497,12 +8497,12 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.79</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.55</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8532,7 +8532,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>-3.61</t>
+          <t>0.96</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>36</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3767</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8739,12 +8739,12 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.18</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>-4.01</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>18.06</t>
+          <t>18.89</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>24.16</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>172265</t>
+          <t>180205</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8961,17 +8961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>-1.57</t>
+          <t>3.4</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>417</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>20203</t>
+          <t>25090</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8981,12 +8981,12 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>-2.68</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>15.17</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>863297</t>
+          <t>907717</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-2.67</t>
+          <t>-0.25</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>58</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>10051</t>
+          <t>7427</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9223,12 +9223,12 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>-1.27</t>
+          <t>0.13</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9258,7 +9258,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.32</t>
+          <t>4.22</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>19.38</t>
+          <t>19.85</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>141167</t>
+          <t>144575</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9445,84 +9445,84 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>8048</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-5.45</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-5.46</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>6986</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-5.45</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-5.46</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB38" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -9530,7 +9530,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>5.08</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>17.11</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
@@ -9585,12 +9585,12 @@
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>83.78</t>
+          <t>89.02</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>208436</t>
+          <t>211018</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
@@ -9687,17 +9687,17 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-4.12</t>
+          <t>-4.61</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>589</t>
+          <t>627</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
@@ -9707,12 +9707,12 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-1.65</t>
+          <t>-4.37</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -9772,7 +9772,7 @@
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
@@ -9802,7 +9802,7 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.36</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>25.22</t>
+          <t>25.1</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
@@ -9827,12 +9827,12 @@
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>17.65</t>
+          <t>18.11</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>11978</t>
+          <t>11922</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>-3.93</t>
+          <t>-2.35</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -9939,7 +9939,7 @@
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>844</t>
+          <t>1291</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9949,12 +9949,12 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0.78</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>-0.69</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -10044,7 +10044,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1.4</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="AJ40" t="inlineStr">
@@ -10054,7 +10054,7 @@
       </c>
       <c r="AK40" t="inlineStr">
         <is>
-          <t>10.06</t>
+          <t>10.21</t>
         </is>
       </c>
       <c r="AL40" t="inlineStr">
@@ -10069,12 +10069,12 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>18.88</t>
+          <t>19.06</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
         <is>
-          <t>29688</t>
+          <t>30147</t>
         </is>
       </c>
       <c r="AP40" t="inlineStr">
@@ -10171,17 +10171,17 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>-1.82</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>3157</t>
+          <t>2277</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
@@ -10196,7 +10196,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>-4.09</t>
+          <t>-0.43</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="W41" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="AC41" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD41" t="inlineStr">
@@ -10286,7 +10286,7 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>8.85</t>
         </is>
       </c>
       <c r="AJ41" t="inlineStr">
@@ -10296,7 +10296,7 @@
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>35.48</t>
+          <t>36.45</t>
         </is>
       </c>
       <c r="AL41" t="inlineStr">
@@ -10311,12 +10311,12 @@
       </c>
       <c r="AN41" t="inlineStr">
         <is>
-          <t>45.66</t>
+          <t>46.76</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>4412</t>
         </is>
       </c>
       <c r="AP41" t="inlineStr">
@@ -10413,17 +10413,17 @@
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>-4.6</t>
+          <t>-1.41</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>1098</t>
+          <t>707</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
@@ -10433,12 +10433,12 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.92</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -10528,7 +10528,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>2.77</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -10538,7 +10538,7 @@
       </c>
       <c r="AK42" t="inlineStr">
         <is>
-          <t>10.82</t>
+          <t>11.16</t>
         </is>
       </c>
       <c r="AL42" t="inlineStr">
@@ -10553,12 +10553,12 @@
       </c>
       <c r="AN42" t="inlineStr">
         <is>
-          <t>37.49</t>
+          <t>38.03</t>
         </is>
       </c>
       <c r="AO42" t="inlineStr">
         <is>
-          <t>54890</t>
+          <t>56618</t>
         </is>
       </c>
       <c r="AP42" t="inlineStr">

--- a/Result/check3/2025-04-16.xlsx
+++ b/Result/check3/2025-04-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV42"/>
+  <dimension ref="A1:AV39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,34 +733,34 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
+          <t>-1.99</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>568</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
           <t>-1.32</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>1385</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>-2.30</t>
-        </is>
-      </c>
       <c r="R2" t="inlineStr">
         <is>
           <t>0.03</t>
@@ -818,7 +818,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.11</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>15.76</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>28.52</t>
+          <t>28.62</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>44959</t>
+          <t>44664</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
@@ -975,7 +975,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>-5.41</t>
+          <t>-8.94</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -985,7 +985,7 @@
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>793</t>
+          <t>513</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -1000,7 +1000,7 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>-3.91</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -1060,7 +1060,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
@@ -1090,7 +1090,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>6.69</t>
+          <t>6.48</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
@@ -1115,12 +1115,12 @@
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>65.34</t>
+          <t>65.39</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3256</t>
+          <t>3150</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
@@ -1217,17 +1217,17 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>8.09</t>
+          <t>16.39</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>51</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>6793</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>8.66</t>
+          <t>7.30</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1332,7 +1332,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>2.45</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>32.64</t>
+          <t>35.88</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
@@ -1357,12 +1357,12 @@
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>3264</t>
+          <t>3588</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-5.18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1041</t>
+          <t>834</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1479,12 +1479,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>1.48</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>-3.46</t>
+          <t>-4.91</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>68.52</t>
+          <t>69.54</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>8126</t>
+          <t>7952</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6763</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-2.28</t>
+          <t>-2.43</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>600.0</t>
+          <t>269.666</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,114 +1671,114 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-3.26</t>
+          <t>-4.65</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.75</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>14.67</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>602.0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
           <t>2.11</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>-7.97</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>-41.13</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>-42.34</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>55.2</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>-3.18</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>721</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>-3.19</t>
-        </is>
-      </c>
-      <c r="V6" t="inlineStr">
-        <is>
-          <t>-3.31</t>
-        </is>
-      </c>
-      <c r="W6" t="inlineStr">
-        <is>
-          <t>-95.0</t>
-        </is>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>11.0</t>
-        </is>
-      </c>
-      <c r="Y6" t="inlineStr">
-        <is>
-          <t>-10.0</t>
-        </is>
-      </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA6" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB6" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -1786,22 +1786,22 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>-10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>111023.0</t>
+          <t>402907835.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>綠界科技*</t>
+          <t>LINEPAY</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
@@ -1811,62 +1811,62 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>2.33</t>
+          <t>25.97</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>27.58</t>
+          <t>64.6</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>40.68%</t>
+          <t>32.93%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>22.63%</t>
+          <t>8.97%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>122.18</t>
+          <t>35.05</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>9846</t>
+          <t>41820</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>全方位金物流服務95.40%、其他4.60% (2024年)</t>
+          <t>交易手續費-第三方支付82.48%、金融推廣合作12.20%、其他3.04%、系統管理服務2.28% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>綠界科技*-數位雲端-上櫃</t>
+          <t>LINEPAY-數位雲端-上市</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>數位雲端右下</t>
+          <t>數位雲端平</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>14.78</t>
+          <t>151.41</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電子商務 - 金流串接處理服務** 金融科技 - 支付</t>
+          <t>** 電子商務 - 金流串接處理服務、行銷廣告服務、票券銷售** 金融科技 - 支付</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6763</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2236.509</t>
+          <t>600.0</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1840.0</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,172 +1943,172 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>-1.85</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2162</t>
+          <t>581</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>4.11</t>
+          <t>-0.17</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-48.63</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-74.90</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>-421171938.0</t>
+          <t>111023.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>綠界科技*</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.95</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>27.94</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>40.68%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>22.63%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>120.83</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>9975</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>全方位金物流服務95.40%、其他4.60% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>綠界科技*-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 電子商務 - 金流串接處理服務** 金融科技 - 支付</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>532.0</t>
+          <t>2236.509</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>26.14</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>631.0</t>
+          <t>1840.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,172 +2185,172 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>6.66</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>74</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>792</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>6.12</t>
+          <t>-2.14</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-39.56</t>
+          <t>-48.63</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-40.58</t>
+          <t>-74.90</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>774889.0</t>
+          <t>-421171938.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>精測</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>1.15</t>
+          <t>3.97</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>43.47</t>
+          <t>15.22</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>55.73%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>27.41%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>22165</t>
+          <t>346592</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>精測-半導體業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>245.11</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2360,12 +2360,12 @@
       </c>
       <c r="AU8" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1486.633</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,17 +2397,17 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>26.14</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>490.0</t>
+          <t>631.0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -2427,42 +2427,42 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1.61</t>
+          <t>9.08</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>10</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1377</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>5.94</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -2472,27 +2472,27 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>-31.22</t>
+          <t>-39.56</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>-32.10</t>
+          <t>-40.58</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>-13.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -2512,87 +2512,87 @@
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>-13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
-          <t>1252735234.0</t>
+          <t>774889.0</t>
         </is>
       </c>
       <c r="AF9" t="inlineStr">
         <is>
-          <t>藥華藥</t>
+          <t>精測</t>
         </is>
       </c>
       <c r="AG9" t="inlineStr">
         <is>
-          <t>生技醫療業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH9" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>1.12</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>55.89</t>
+          <t>44.63</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>88.38%</t>
+          <t>55.73%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>17.68%</t>
+          <t>27.41%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>59.45</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>148895</t>
+          <t>22756</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>藥品銷售99.38%、其他0.33%、勞務0.30% (2024年)</t>
+          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>藥華藥-生技醫療業-上市</t>
+          <t>精測-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>245.11</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -2669,17 +2669,17 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>1.3</t>
+          <t>-0.24</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4565</t>
+          <t>5180</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -2689,12 +2689,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>1.68</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -2724,7 +2724,7 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
@@ -2754,7 +2754,7 @@
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>71.57</t>
+          <t>70.47</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
@@ -2809,12 +2809,12 @@
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>142.58</t>
+          <t>141.67</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>163884</t>
+          <t>161365</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6148</t>
+          <t>6221</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9.37</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>34050.0</t>
+          <t>697.0</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,27 +2881,27 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>0.88</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>33.62</t>
+          <t>50.14</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>65.3</t>
+          <t>62.3</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -2911,72 +2911,72 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>-0.46</t>
+          <t>2.04</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>8778</t>
+          <t>1343</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>5.02</t>
+          <t>2.80</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>5.35</t>
+          <t>8.15</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0.15</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>4.74</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>3.62</t>
+          <t>-2.97</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>100.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>27.0</t>
+          <t>14.0</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>56.0</t>
+          <t>52.0</t>
         </is>
       </c>
       <c r="Z11" t="inlineStr">
@@ -2991,27 +2991,27 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>2449153.0</t>
+          <t>45475.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>驊宏資</t>
+          <t>晉泰</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.12</t>
+          <t>5.5</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>13.71</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>42.21</t>
+          <t>18.12</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>23.65%</t>
+          <t>21.23%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>6.98%</t>
+          <t>8.38%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>26.45</t>
+          <t>27.07</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>3029</t>
+          <t>7939</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>技術服務53.47%、商品銷售45.45%、其他營業收入1.09% (2023年)</t>
+          <t>資訊軟體,電腦設備及電信器88.41%、勞務11.59% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>驊宏資-資訊服務業-上櫃</t>
+          <t>晉泰-資訊服務業-上櫃</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>資訊服務業右上</t>
+          <t>資訊服務業右下</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>13.01</t>
+          <t>22.24</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 系統整合服務** 雲端運算 - 系統整合** 大數據 - 系統整合</t>
+          <t>** 電腦及週邊設備 - 伺服器、其他電腦及週邊設備** 軟體服務 - 應用/系統軟體設計開發、系統整合服務、通路經銷** 雲端運算 - 電腦設備、設備管理軟體、虛擬化軟體、資安防護軟體、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、伺服器、儲存、網路、IaaS、PaaS、SaaS</t>
         </is>
       </c>
     </row>
@@ -3103,134 +3103,134 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>6136</t>
+          <t>6189</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4407.152</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>10.40</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>381.079</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>72.2</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>-1.06</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-2.41</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>704</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>-0.07</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>-3.21</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>-3.60</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>23.5</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>6.19</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>1294</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>1.03</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>-0.31</t>
-        </is>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>-0.33</t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>95.0</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>28.0</t>
-        </is>
-      </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA12" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB12" t="inlineStr">
         <is>
           <t>2025-04-16</t>
@@ -3238,27 +3238,27 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>-10553792.0</t>
+          <t>420246098.0</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
         <is>
-          <t>富爾特</t>
+          <t>豐藝</t>
         </is>
       </c>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
@@ -3268,57 +3268,57 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>8.51</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>37.19</t>
         </is>
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>27.83</t>
+          <t>11.03</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>20.77%</t>
+          <t>7.09%</t>
         </is>
       </c>
       <c r="AM12" t="inlineStr">
         <is>
-          <t>-5.76%</t>
+          <t>2.71%</t>
         </is>
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>98.29</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>2894</t>
+          <t>15421</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
         <is>
-          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
+          <t>特定應用晶片31.63%、線性、分散式元件29.91%、影像處理IC19.12%、特定應用液晶面板產品14.64%、其他4.70% (2024年)</t>
         </is>
       </c>
       <c r="AQ12" t="inlineStr">
         <is>
-          <t>富爾特-通信網路業-上市</t>
+          <t>豐藝-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR12" t="inlineStr">
         <is>
-          <t>通信網路業右上</t>
+          <t>電子通路業平</t>
         </is>
       </c>
       <c r="AS12" t="inlineStr">
         <is>
-          <t>30.17</t>
+          <t>29.15</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr">
@@ -3333,7 +3333,7 @@
       </c>
       <c r="AV12" t="inlineStr">
         <is>
-          <t>** 通信網路 - 電信服務業</t>
+          <t>** 半導體 - IC通路** 電腦及週邊設備 - 晶片組、面板、顯示器模組** 平面顯示器 - 面板、顯示器模組</t>
         </is>
       </c>
     </row>
@@ -3345,17 +3345,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6136</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.42</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9781.342</t>
+          <t>381.079</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -3365,17 +3365,17 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>-1.06</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>12.84</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>23.85</t>
+          <t>23.5</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -3395,72 +3395,72 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>5.62</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>757</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.16</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>-0.00</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>-0.20</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>-0.23</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>28.0</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -3475,32 +3475,32 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>28</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
-          <t>-109742417.0</t>
+          <t>-10553792.0</t>
         </is>
       </c>
       <c r="AF13" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>富爾特</t>
         </is>
       </c>
       <c r="AG13" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH13" t="inlineStr">
@@ -3510,57 +3510,57 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>19.01</t>
+          <t>27.67</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20.77%</t>
         </is>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-5.76%</t>
         </is>
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>98.78</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>364620</t>
+          <t>2877</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
         <is>
-          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
+          <t>通信服務,娛樂服務,網路行銷98.91%、其他1.09% (2024年)</t>
         </is>
       </c>
       <c r="AQ13" t="inlineStr">
         <is>
-          <t>合庫金-金融保險-上市</t>
+          <t>富爾特-通信網路業-上市</t>
         </is>
       </c>
       <c r="AR13" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>通信網路業右上</t>
         </is>
       </c>
       <c r="AS13" t="inlineStr">
         <is>
-          <t>16.69</t>
+          <t>30.17</t>
         </is>
       </c>
       <c r="AT13" t="inlineStr">
@@ -3570,12 +3570,12 @@
       </c>
       <c r="AU13" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV13" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 通信網路 - 電信服務業</t>
         </is>
       </c>
     </row>
@@ -3587,17 +3587,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>5876</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>1.73</t>
+          <t>-0.42</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>11791.128</t>
+          <t>9781.342</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -3607,27 +3607,27 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>17.86</t>
+          <t>12.84</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>1.04</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>47.45</t>
+          <t>23.85</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -3637,72 +3637,72 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>-1.71</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>82</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>6191</t>
+          <t>5366</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>-2.46</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>-0.20</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-99.0</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>33.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -3717,27 +3717,27 @@
       </c>
       <c r="AB14" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
-          <t>-362015022.0</t>
+          <t>-109742417.0</t>
         </is>
       </c>
       <c r="AF14" t="inlineStr">
         <is>
-          <t>上海商銀</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="AG14" t="inlineStr">
@@ -3752,17 +3752,17 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>4.19</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>2.54</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>16.78</t>
+          <t>18.93</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,32 +3777,32 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>226794</t>
+          <t>363097</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
         <is>
-          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
+          <t>公平價值變動之金融資產與金50.47%、利息淨收益45.84%、手續費及佣金16.83%、保險業務8.02%、透過其他綜合損益按公允價值4.53%、其他利息以外淨收益0.45%、投資性不動產0.13%、採用覆蓋法重分類損益0.12%、資產減損迴轉利益(減損損失)0.05%、權益法投資收益-關聯和合營公0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ14" t="inlineStr">
         <is>
-          <t>上海商銀-金融保險-上市</t>
+          <t>合庫金-金融保險-上市</t>
         </is>
       </c>
       <c r="AR14" t="inlineStr">
         <is>
-          <t>金融保險右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS14" t="inlineStr">
         <is>
-          <t>40.81</t>
+          <t>16.69</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="AU14" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV14" t="inlineStr">
@@ -3829,17 +3829,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>5489</t>
+          <t>5876</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8.68</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2107.0</t>
+          <t>11791.128</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3849,202 +3849,202 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.38</t>
+          <t>1.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>47.45</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>-1.82</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>5306</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>19.22</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>49.8</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>2025-04-10</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>2025-04-24</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>-362015022.0</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>上海商銀</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>金融保險</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>上市</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>16.76</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>11.55</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>9693</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>-2.04</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="W15" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>260.0</t>
-        </is>
-      </c>
-      <c r="Y15" t="inlineStr">
-        <is>
-          <t>89.0</t>
-        </is>
-      </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA15" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD15" t="inlineStr">
-        <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr">
-        <is>
-          <t>138155.0</t>
-        </is>
-      </c>
-      <c r="AF15" t="inlineStr">
-        <is>
-          <t>彩富</t>
-        </is>
-      </c>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>其他電子業</t>
-        </is>
-      </c>
-      <c r="AH15" t="inlineStr">
-        <is>
-          <t>上櫃</t>
-        </is>
-      </c>
-      <c r="AI15" t="inlineStr">
-        <is>
-          <t>3.2</t>
-        </is>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>23.56</t>
-        </is>
-      </c>
-      <c r="AL15" t="inlineStr">
-        <is>
-          <t>38.43%</t>
-        </is>
-      </c>
       <c r="AM15" t="inlineStr">
         <is>
-          <t>11.45%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>28.75</t>
+          <t>12.32</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>5782</t>
+          <t>226551</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
         <is>
-          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
+          <t>利息淨收益75.30%、手續費淨收益13.21%、透過其他綜合損益按公允價值8.16%、兌換損益7.24%、其他利息以外淨收益0.70%、權益法投資收益-關聯和合營公0.63%、除列按攤銷後成本衡量金融資0.15% (2024年)</t>
         </is>
       </c>
       <c r="AQ15" t="inlineStr">
         <is>
-          <t>彩富-其他電子業-上櫃</t>
+          <t>上海商銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR15" t="inlineStr">
         <is>
-          <t>其他電子業右上</t>
+          <t>金融保險右上</t>
         </is>
       </c>
       <c r="AS15" t="inlineStr">
         <is>
-          <t>23.44</t>
+          <t>40.81</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr">
@@ -4059,7 +4059,7 @@
       </c>
       <c r="AV15" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -4071,17 +4071,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4961</t>
+          <t>5489</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-1.76</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>354.096</t>
+          <t>2107.0</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -4091,17 +4091,17 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>-2.53</t>
+          <t>3.38</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>4.52</t>
+          <t>19.22</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -4111,7 +4111,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>198.0</t>
+          <t>49.8</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -4121,72 +4121,72 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>15.74</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>24</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>10451</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>0.77</t>
+          <t>-0.32</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>-0.04</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>-7.72</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>-7.99</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>260.0</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>25.0</t>
+          <t>89.0</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -4201,92 +4201,92 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>89</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
         <is>
-          <t>157050136.0</t>
+          <t>138155.0</t>
         </is>
       </c>
       <c r="AF16" t="inlineStr">
         <is>
-          <t>天鈺</t>
+          <t>彩富</t>
         </is>
       </c>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>其他電子業</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>6.42</t>
+          <t>3.05</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>42.52</t>
+          <t>4.68</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>12.47</t>
+          <t>24.73</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
         <is>
-          <t>26.16%</t>
+          <t>38.43%</t>
         </is>
       </c>
       <c r="AM16" t="inlineStr">
         <is>
-          <t>9.66%</t>
+          <t>11.45%</t>
         </is>
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>142.58</t>
+          <t>29.0</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>24311</t>
+          <t>6070</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
         <is>
-          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
+          <t>安全監控系統91.23%、其他8.55%、機器視覺系統0.22% (2024年)</t>
         </is>
       </c>
       <c r="AQ16" t="inlineStr">
         <is>
-          <t>天鈺-半導體業-上市</t>
+          <t>彩富-其他電子業-上櫃</t>
         </is>
       </c>
       <c r="AR16" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>其他電子業右上</t>
         </is>
       </c>
       <c r="AS16" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>23.44</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr">
@@ -4301,7 +4301,7 @@
       </c>
       <c r="AV16" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
+          <t>** 電腦及週邊設備 - 安全監控系統** 平面顯示器 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -4313,17 +4313,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>4950</t>
+          <t>4961</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8.73</t>
+          <t>-1.76</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1793.0</t>
+          <t>354.096</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -4333,27 +4333,27 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>-2.53</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>4.39</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>51.97</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.16</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>18.05</t>
+          <t>198.0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -4363,72 +4363,72 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>-6.18</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>555</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>4.66</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-2.63</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>-0.04</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>1.58</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>-7.72</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>-7.99</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>336.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>61.0</t>
+          <t>25.0</t>
         </is>
       </c>
       <c r="Z17" t="inlineStr">
@@ -4443,92 +4443,92 @@
       </c>
       <c r="AB17" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>25</t>
         </is>
       </c>
       <c r="AE17" t="inlineStr">
         <is>
-          <t>66959.0</t>
+          <t>157050136.0</t>
         </is>
       </c>
       <c r="AF17" t="inlineStr">
         <is>
-          <t>金耘國際</t>
+          <t>天鈺</t>
         </is>
       </c>
       <c r="AG17" t="inlineStr">
         <is>
-          <t>其他</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6.32</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>2.3</t>
+          <t>42.52</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12.66</t>
         </is>
       </c>
       <c r="AL17" t="inlineStr">
         <is>
-          <t>15.52%</t>
+          <t>26.16%</t>
         </is>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>9.66%</t>
         </is>
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>68.53</t>
+          <t>141.67</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2495</t>
+          <t>24675</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
         <is>
-          <t>不�袗�產品56.04%、高合金鋼23.52%、其他20.45% (2024年)</t>
+          <t>顯示器驅動IC66.60%、其他22.07%、電源管理積體電路(IC)11.21%、勞務0.11% (2024年)</t>
         </is>
       </c>
       <c r="AQ17" t="inlineStr">
         <is>
-          <t>金耘國際-其他-上櫃</t>
+          <t>天鈺-半導體業-上市</t>
         </is>
       </c>
       <c r="AR17" t="inlineStr">
         <is>
-          <t>其他平</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS17" t="inlineStr">
         <is>
-          <t>3.87</t>
+          <t>148.0</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr">
@@ -4543,7 +4543,7 @@
       </c>
       <c r="AV17" t="inlineStr">
         <is>
-          <t>** 其他 - 其他</t>
+          <t>** 半導體 - LED驅動IC、電源管理IC、平面顯示器驅動IC</t>
         </is>
       </c>
     </row>
@@ -4555,17 +4555,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3708</t>
+          <t>4104</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-1.96</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>378.552</t>
+          <t>175.131</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -4575,27 +4575,27 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>-1.41</t>
+          <t>-0.23</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>5.32</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>14.68</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>70.5</t>
+          <t>88.0</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -4605,72 +4605,72 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>-4.27</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>25</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>564</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-1.42</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>-0.08</t>
+          <t>-0.00</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>-4.33</t>
+          <t>-0.28</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>-0.31</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>-95.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>75.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>26.0</t>
+          <t>35.0</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -4695,22 +4695,22 @@
       </c>
       <c r="AD18" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>35</t>
         </is>
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>117497488.0</t>
+          <t>-29178992.0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
         <is>
-          <t>上緯投控</t>
+          <t>佳醫</t>
         </is>
       </c>
       <c r="AG18" t="inlineStr">
         <is>
-          <t>綠能環保</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH18" t="inlineStr">
@@ -4720,57 +4720,57 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>5.09</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
-          <t>19.18</t>
+          <t>13.94</t>
         </is>
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>27.57</t>
+          <t>17.88</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
         <is>
-          <t>23.02%</t>
+          <t>22.38%</t>
         </is>
       </c>
       <c r="AM18" t="inlineStr">
         <is>
-          <t>6.15%</t>
+          <t>9.93%</t>
         </is>
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>20.23</t>
+          <t>37.94</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>7878</t>
+          <t>13791</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
         <is>
-          <t>環保耐蝕材料39.58%、環保綠能材料33.76%、其他25.01%、循環經濟材料1.65% (2024年)</t>
+          <t>醫療設備及耗材58.00%、醫學美容設備及耗材13.59%、藥品11.09%、其他營業收入7.58%、勞務6.50%、家用電器1.89%、租賃0.75%、其他0.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ18" t="inlineStr">
         <is>
-          <t>上緯投控-綠能環保-上市</t>
+          <t>佳醫-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR18" t="inlineStr">
         <is>
-          <t>綠能環保右下</t>
+          <t>生技醫療業右下</t>
         </is>
       </c>
       <c r="AS18" t="inlineStr">
         <is>
-          <t>75.79</t>
+          <t>54.9</t>
         </is>
       </c>
       <c r="AT18" t="inlineStr">
@@ -4785,7 +4785,7 @@
       </c>
       <c r="AV18" t="inlineStr">
         <is>
-          <t>** 風力發電 - 玻/碳纖、樹酯</t>
+          <t>** 製藥 - 藥品代理銷售及通路、醫療院所** 醫療器材 - 醫療器材代理、醫療院所、醫療器材專賣店、藥局等通路</t>
         </is>
       </c>
     </row>
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>-7.58</t>
+          <t>-5.37</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>5980</t>
+          <t>2639</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>-5.16</t>
+          <t>-1.26</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.84</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>14.12</t>
+          <t>14.42</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>38.03</t>
+          <t>37.94</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>16518</t>
+          <t>16865</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>14.2</t>
+          <t>11.04</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1188</t>
+          <t>684</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5109,12 +5109,12 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5.62</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>142.58</t>
+          <t>141.67</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>1293</t>
+          <t>1247</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>1150</t>
+          <t>993</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5351,12 +5351,12 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>-1.40</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>38.57</t>
+          <t>38.37</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>132202</t>
+          <t>131487</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>6.11</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>515</t>
+          <t>719</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>4.47</t>
+          <t>-4.93</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>99.92</t>
+          <t>99.1</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.45</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>183300</t>
+          <t>181807</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>3.77</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>22</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>600</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5840,7 +5840,7 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>-0.26</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>7.81</t>
+          <t>7.55</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -5940,7 +5940,7 @@
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>6.55</t>
+          <t>6.78</t>
         </is>
       </c>
       <c r="AL23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>4093</t>
+          <t>4237</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>-2.71</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>33</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>989</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6077,12 +6077,12 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>4.36</t>
+          <t>8.06</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>68.43</t>
+          <t>70.67</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>1130</t>
+          <t>1188</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>-2.86</t>
+          <t>2.7</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>101</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>4232</t>
+          <t>18590</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X25" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>15.77</t>
+          <t>16.67</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>59.3</t>
+          <t>59.45</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>34312</t>
+          <t>36273</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>1,079</t>
+          <t>1,222</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>41760</t>
+          <t>23935</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>-1.98</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.76</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>296680</t>
+          <t>292338</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.5</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>154</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>31940</t>
+          <t>23311</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6803,12 +6803,12 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>2.68</t>
+          <t>-2.42</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>1.69</t>
+          <t>1.73</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>38.11</t>
+          <t>37.12</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>135841</t>
+          <t>132322</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -7025,17 +7025,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>4.33</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>41</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>4148</t>
+          <t>3265</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7045,12 +7045,12 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>5.85</t>
+          <t>5.77</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>14.29</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>15.53</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>114507</t>
+          <t>116183</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2836</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0.44</t>
+          <t>-4.1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1113.395</t>
+          <t>10869.195</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,17 +7237,17 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-4.20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.90</t>
+          <t>7.27</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>11.45</t>
+          <t>131.0</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1.29</t>
+          <t>2.6</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>166</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>880</t>
+          <t>26568</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>0.87</t>
+          <t>1.36</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.12</t>
+          <t>-10.84</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-11.18</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>9.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7352,27 +7352,27 @@
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>57008677.0</t>
+          <t>4074944064.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>高雄銀</t>
+          <t>亞光</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>金融保險</t>
+          <t>光電業</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>5.17</t>
+          <t>2.97</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>0.6</t>
+          <t>22.62</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>21.89</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.50%</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8.25%</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>12.37</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>20721</t>
+          <t>37558</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>利息淨收益66.79%、手續費淨收益20.57%、透過損益按公允價值衡量之金9.37%、透過其他綜合損益按公允價值3.98%、其他利息以外淨收益1.27%、除列按攤銷後成本衡量金融資1.07% (2024年)</t>
+          <t>光學元件48.32%、影像感測器18.73%、光電零組件13.15%、數位相機12.93%、光電製品6.87% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>高雄銀-金融保險-上市</t>
+          <t>亞光-光電業-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>金融保險右下</t>
+          <t>光電業右上</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>13.7</t>
+          <t>52.54</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 金融 - 金控業/銀行業/保險業</t>
+          <t>** 電腦及週邊設備 - 光學鏡片、鏡頭、印表機、傳真機、掃瞄器、多功能事務機、投影機</t>
         </is>
       </c>
     </row>
@@ -7509,17 +7509,17 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>-1.83</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>99</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>17507</t>
+          <t>16306</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
@@ -7529,12 +7529,12 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>-0.61</t>
+          <t>-2.69</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -7594,7 +7594,7 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>4.29</t>
+          <t>4.28</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -7634,7 +7634,7 @@
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>4.83</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
@@ -7649,12 +7649,12 @@
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>228982</t>
+          <t>229543</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
@@ -7751,17 +7751,17 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>-6.38</t>
+          <t>-6.01</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>1201</t>
+          <t>683</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -7776,7 +7776,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>-1.77</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -7836,7 +7836,7 @@
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
@@ -7866,7 +7866,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>3.55</t>
+          <t>3.53</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>33.57</t>
+          <t>33.69</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
@@ -7891,12 +7891,12 @@
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>16.02</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>4186</t>
+          <t>4200</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>18</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>1563</t>
+          <t>1333</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>-1.89</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8078,7 +8078,7 @@
       </c>
       <c r="AC32" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD32" t="inlineStr">
@@ -8108,7 +8108,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>3.9</t>
+          <t>3.96</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8118,7 +8118,7 @@
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>22.49</t>
+          <t>22.18</t>
         </is>
       </c>
       <c r="AL32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>44.63</t>
+          <t>44.61</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>63732</t>
+          <t>62837</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>3.69</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>15</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>2355</t>
+          <t>2622</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8255,12 +8255,12 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>0.7</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>5.39</t>
+          <t>-8.78</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>71.93</t>
+          <t>72.34</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>18603</t>
+          <t>17574</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8427,17 +8427,17 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2383</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2.38</t>
+          <t>-5.08</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1126.573</t>
+          <t>4016.56</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -8447,17 +8447,17 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>-4.45</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3.97</t>
+          <t>1.37</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>17.12</t>
+          <t>11.50</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -8467,7 +8467,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>15.15</t>
+          <t>517.0</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -8477,57 +8477,57 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>-0.33</t>
+          <t>-0.39</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>2602</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>1.72</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>0.79</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>-2.91</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>-24.56</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>-24.81</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -8537,12 +8537,12 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>20.0</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>77.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
@@ -8562,22 +8562,22 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>42675146.0</t>
+          <t>6027714592.0</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
         <is>
-          <t>太空梭</t>
+          <t>台光電</t>
         </is>
       </c>
       <c r="AG34" t="inlineStr">
@@ -8592,47 +8592,47 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3.3</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>8.04</t>
+          <t>53.55</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18.64</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
         <is>
-          <t>4.01%</t>
+          <t>28.45%</t>
         </is>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
-          <t>-3.02%</t>
+          <t>18.99%</t>
         </is>
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>25.49</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>177789</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
         <is>
-          <t>銅材料91.74%、C產品線8.26% (2024年)</t>
+          <t>銅箔基板(CCL)56.09%、黏合片42.56%、多層壓合板0.74%、其他0.61% (2024年)</t>
         </is>
       </c>
       <c r="AQ34" t="inlineStr">
         <is>
-          <t>太空梭-電子零組件業-上市</t>
+          <t>台光電-電子零組件業-上市</t>
         </is>
       </c>
       <c r="AR34" t="inlineStr">
@@ -8642,7 +8642,7 @@
       </c>
       <c r="AS34" t="inlineStr">
         <is>
-          <t>8.82</t>
+          <t>101.29</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="AV34" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 連接線</t>
+          <t>** 印刷電路板 - 銅箔基板</t>
         </is>
       </c>
     </row>
@@ -8669,17 +8669,17 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2383</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>-5.08</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>4016.56</t>
+          <t>17826.79</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -8689,17 +8689,17 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>-4.45</t>
+          <t>0.69</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>2.62</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11.50</t>
+          <t>16.00</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -8709,7 +8709,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>517.0</t>
+          <t>227.0</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -8719,74 +8719,74 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>0.96</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>326</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>3586</t>
+          <t>14352</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>1.17</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>-2.61</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>-0.07</t>
+          <t>-0.05</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>-24.56</t>
+          <t>-10.49</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>-24.81</t>
+          <t>-11.42</t>
         </is>
       </c>
       <c r="W35" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X35" t="inlineStr">
         <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
           <t>20.0</t>
         </is>
       </c>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
       <c r="Z35" t="inlineStr">
         <is>
           <t>False</t>
@@ -8804,27 +8804,27 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AE35" t="inlineStr">
         <is>
-          <t>6027714592.0</t>
+          <t>3347024628.0</t>
         </is>
       </c>
       <c r="AF35" t="inlineStr">
         <is>
-          <t>台光電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>電子零組件業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -8834,57 +8834,57 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>3.26</t>
+          <t>5.65</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>53.55</t>
+          <t>108.27</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>18.89</t>
+          <t>14.85</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
         <is>
-          <t>28.45%</t>
+          <t>7.45%</t>
         </is>
       </c>
       <c r="AM35" t="inlineStr">
         <is>
-          <t>18.99%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>25.44</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>180205</t>
+          <t>888404</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
         <is>
-          <t>銅箔基板(CCL)56.09%、黏合片42.56%、多層壓合板0.74%、其他0.61% (2024年)</t>
+          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
         </is>
       </c>
       <c r="AQ35" t="inlineStr">
         <is>
-          <t>台光電-電子零組件業-上市</t>
+          <t>廣達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR35" t="inlineStr">
         <is>
-          <t>電子零組件業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS35" t="inlineStr">
         <is>
-          <t>101.29</t>
+          <t>57.67</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr">
@@ -8899,7 +8899,7 @@
       </c>
       <c r="AV35" t="inlineStr">
         <is>
-          <t>** 印刷電路板 - 銅箔基板</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
         </is>
       </c>
     </row>
@@ -8911,17 +8911,17 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>-0.45</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>17826.79</t>
+          <t>13270.767</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -8931,17 +8931,17 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.69</t>
+          <t>-0.99</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>1.43</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>16.00</t>
+          <t>8.03</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
@@ -8951,7 +8951,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>227.0</t>
+          <t>40.4</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -8961,72 +8961,72 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>3.4</t>
+          <t>-1.25</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>235</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>25090</t>
+          <t>7974</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>-10.49</t>
+          <t>-1.94</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>-11.42</t>
+          <t>-1.95</t>
         </is>
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>42.0</t>
+          <t>16.0</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
@@ -9046,22 +9046,22 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>3347024628.0</t>
+          <t>-19392238.0</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="AG36" t="inlineStr">
@@ -9076,57 +9076,57 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
         <is>
-          <t>108.27</t>
+          <t>55.13</t>
         </is>
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>15.17</t>
+          <t>19.66</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
         <is>
-          <t>7.45%</t>
+          <t>5.09%</t>
         </is>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
-          <t>3.63%</t>
+          <t>1.98%</t>
         </is>
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>907717</t>
+          <t>143140</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
         <is>
-          <t>電子產品99.68%、其他產品0.32% (2024年)</t>
+          <t>電腦產品99.04%、其他0.77%、勞務0.19% (2024年)</t>
         </is>
       </c>
       <c r="AQ36" t="inlineStr">
         <is>
-          <t>廣達-電腦及週邊設備業-上市</t>
+          <t>英業達-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>電腦及週邊設備業右下</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
         <is>
-          <t>57.67</t>
+          <t>19.88</t>
         </is>
       </c>
       <c r="AT36" t="inlineStr">
@@ -9141,7 +9141,7 @@
       </c>
       <c r="AV36" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦、其他電腦及週邊設備之零組件** 雲端運算 - 電腦設備、伺服器、儲存、網路** 運動科技 - 穿戴式裝置</t>
+          <t>** 電腦及週邊設備 - 筆記型電腦</t>
         </is>
       </c>
     </row>
@@ -9153,17 +9153,17 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>-2.33</t>
+          <t>-0.9</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>13270.767</t>
+          <t>6356.047</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -9173,17 +9173,17 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>-0.99</t>
+          <t>-1.24</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.75</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>8.03</t>
+          <t>5.73</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -9193,7 +9193,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>40.4</t>
+          <t>88.8</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -9203,42 +9203,42 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>-0.25</t>
+          <t>1.22</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>150</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>7427</t>
+          <t>6149</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2.03</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>-0.56</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>-0.08</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -9248,27 +9248,27 @@
       </c>
       <c r="U37" t="inlineStr">
         <is>
-          <t>-1.94</t>
+          <t>-5.45</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>-1.95</t>
+          <t>-5.46</t>
         </is>
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>16.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
@@ -9288,22 +9288,22 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>-19392238.0</t>
+          <t>1691877725.0</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="AG37" t="inlineStr">
@@ -9318,47 +9318,47 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.22</t>
+          <t>5.01</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
         <is>
-          <t>55.13</t>
+          <t>16.65</t>
         </is>
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>19.85</t>
+          <t>17.32</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
         <is>
-          <t>5.09%</t>
+          <t>21.26%</t>
         </is>
       </c>
       <c r="AM37" t="inlineStr">
         <is>
-          <t>1.98%</t>
+          <t>9.13%</t>
         </is>
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>88.64</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>144575</t>
+          <t>211018</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
         <is>
-          <t>電腦產品99.04%、其他0.77%、勞務0.19% (2024年)</t>
+          <t>商品銷售99.93%、房地產租賃0.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ37" t="inlineStr">
         <is>
-          <t>英業達-電腦及週邊設備業-上市</t>
+          <t>光寶科-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR37" t="inlineStr">
@@ -9368,7 +9368,7 @@
       </c>
       <c r="AS37" t="inlineStr">
         <is>
-          <t>19.88</t>
+          <t>39.46</t>
         </is>
       </c>
       <c r="AT37" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="AV37" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 筆記型電腦</t>
+          <t>** 汽車 - 銷售、進出口業務、車燈、其他** 電腦及週邊設備 - 機殼、電源供應器、伺服器、其他電腦及週邊設備、安全監控系統** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、IaaS、PaaS、SaaS** 體驗科技 - 環境感知、深度感測、視覺、手勢/動作** LED照明產業 - 封裝/模組、燈具/應用** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 智慧電網 - 配電管理設施** 醫療器材 - 醫療耗材、生物檢測</t>
         </is>
       </c>
     </row>
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-0.9</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>6356.047</t>
+          <t>1384.636</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,17 +9415,17 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-1.24</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.75</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>5.73</t>
+          <t>2.17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
@@ -9435,7 +9435,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>88.8</t>
+          <t>37.0</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -9445,72 +9445,72 @@
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>-3.06</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>8048</t>
+          <t>562</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>-1.39</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
           <t>0.03</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>-5.45</t>
+          <t>-2.31</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>-5.46</t>
+          <t>-2.38</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>10.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>5.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
@@ -9530,27 +9530,27 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>1691877725.0</t>
+          <t>171989568.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>5.01</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>17.32</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>21.26%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>9.13%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>89.02</t>
+          <t>18.98</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>211018</t>
+          <t>29938</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>商品銷售99.93%、房地產租賃0.07% (2024年)</t>
+          <t>輪胎59.11%、房地產40.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>光寶科-電腦及週邊設備業-上市</t>
+          <t>南港-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>39.46</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 汽車 - 銷售、進出口業務、車燈、其他** 電腦及週邊設備 - 機殼、電源供應器、伺服器、其他電腦及週邊設備、安全監控系統** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、無線通訊設備(如行動電話、衛星定位系統、衛星通訊設備、微波通訊設備、數位機上盒)** 其他 - 其他電子產品及電子服務產業** 雲端運算 - 電力設備、冷卻設備、雲端應用服務、系統整合、顧問諮詢、設備安裝服務、IaaS、PaaS、SaaS** 體驗科技 - 環境感知、深度感測、視覺、手勢/動作** LED照明產業 - 封裝/模組、燈具/應用** 電動車輛產業 - 大功率鋰電池芯/模組、電池管理系統、動力馬達等零組件** 智慧電網 - 配電管理設施** 醫療器材 - 醫療耗材、生物檢測</t>
+          <t>** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2231</t>
+          <t>1806</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>686.572</t>
+          <t>5193.331</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,27 +9657,27 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>18.61</t>
+          <t>20.54</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0.82</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>88.5</t>
+          <t>11.2</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -9687,72 +9687,72 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>-4.61</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>627</t>
+          <t>1597</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>-4.37</t>
+          <t>-3.12</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>-2.50</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="W39" t="inlineStr">
         <is>
-          <t>-90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>47.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>91.0</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -9767,32 +9767,32 @@
       </c>
       <c r="AB39" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2025-04-02</t>
         </is>
       </c>
       <c r="AC39" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2025-04-25</t>
         </is>
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>91</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>260848234.0</t>
+          <t>83328965.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>為升</t>
+          <t>冠軍</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>汽車工業</t>
+          <t>玻璃陶瓷</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>2.36</t>
+          <t>8.93</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>10.45</t>
+          <t>2.22</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>25.1</t>
+          <t>36.13</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>31.32%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>8.59%</t>
+          <t>9.98%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>18.11</t>
+          <t>46.12</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>11922</t>
+          <t>4373</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
+          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>為升-汽車工業-上市</t>
+          <t>冠軍-玻璃陶瓷-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>汽車工業右下</t>
+          <t>玻璃陶瓷右上</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>30.48</t>
+          <t>14.4</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9867,733 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 汽車 - 整車組裝、修理及技術服務</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2101</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>-1.61</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>1384.636</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>-1.62</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>-2.35</t>
-        </is>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>1291</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P40" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>-0.69</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U40" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="W40" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X40" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA40" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC40" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD40" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE40" t="inlineStr">
-        <is>
-          <t>171989568.0</t>
-        </is>
-      </c>
-      <c r="AF40" t="inlineStr">
-        <is>
-          <t>南港</t>
-        </is>
-      </c>
-      <c r="AG40" t="inlineStr">
-        <is>
-          <t>橡膠工業</t>
-        </is>
-      </c>
-      <c r="AH40" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI40" t="inlineStr">
-        <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="AJ40" t="inlineStr">
-        <is>
-          <t>2.49</t>
-        </is>
-      </c>
-      <c r="AK40" t="inlineStr">
-        <is>
-          <t>10.21</t>
-        </is>
-      </c>
-      <c r="AL40" t="inlineStr">
-        <is>
-          <t>20.69%</t>
-        </is>
-      </c>
-      <c r="AM40" t="inlineStr">
-        <is>
-          <t>4.53%</t>
-        </is>
-      </c>
-      <c r="AN40" t="inlineStr">
-        <is>
-          <t>19.06</t>
-        </is>
-      </c>
-      <c r="AO40" t="inlineStr">
-        <is>
-          <t>30147</t>
-        </is>
-      </c>
-      <c r="AP40" t="inlineStr">
-        <is>
-          <t>輪胎59.11%、房地產40.89% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ40" t="inlineStr">
-        <is>
-          <t>南港-橡膠工業-上市</t>
-        </is>
-      </c>
-      <c r="AR40" t="inlineStr">
-        <is>
-          <t>橡膠工業右下</t>
-        </is>
-      </c>
-      <c r="AS40" t="inlineStr">
-        <is>
-          <t>16.27</t>
-        </is>
-      </c>
-      <c r="AT40" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU40" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV40" t="inlineStr">
-        <is>
-          <t>** 汽車 - 輪胎</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>1806</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>5193.331</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>20.54</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0.88</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2277</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>-0.43</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>83328965.0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>冠軍</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>8.85</t>
-        </is>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>2.22</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>36.45</t>
-        </is>
-      </c>
-      <c r="AL41" t="inlineStr">
-        <is>
-          <t>24.19%</t>
-        </is>
-      </c>
-      <c r="AM41" t="inlineStr">
-        <is>
-          <t>9.98%</t>
-        </is>
-      </c>
-      <c r="AN41" t="inlineStr">
-        <is>
-          <t>46.76</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>4412</t>
-        </is>
-      </c>
-      <c r="AP41" t="inlineStr">
-        <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ41" t="inlineStr">
-        <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
-        </is>
-      </c>
-      <c r="AR41" t="inlineStr">
-        <is>
-          <t>玻璃陶瓷右上</t>
-        </is>
-      </c>
-      <c r="AS41" t="inlineStr">
-        <is>
-          <t>14.4</t>
-        </is>
-      </c>
-      <c r="AT41" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU41" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV41" t="inlineStr">
-        <is>
           <t>** 建材營造 - 建材原料</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>1795</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>-2.07</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2381.862</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>-0.91</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>3.42</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>16.25</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>216.0</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>-1.41</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>2.71</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0.92</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>-0.07</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>-13.57</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>-13.72</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>-99.0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>54.0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>2025-04-24</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>1143063376.0</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>美時</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>2.69</t>
-        </is>
-      </c>
-      <c r="AJ42" t="inlineStr">
-        <is>
-          <t>16.61</t>
-        </is>
-      </c>
-      <c r="AK42" t="inlineStr">
-        <is>
-          <t>11.16</t>
-        </is>
-      </c>
-      <c r="AL42" t="inlineStr">
-        <is>
-          <t>55.03%</t>
-        </is>
-      </c>
-      <c r="AM42" t="inlineStr">
-        <is>
-          <t>23.11%</t>
-        </is>
-      </c>
-      <c r="AN42" t="inlineStr">
-        <is>
-          <t>38.03</t>
-        </is>
-      </c>
-      <c r="AO42" t="inlineStr">
-        <is>
-          <t>56618</t>
-        </is>
-      </c>
-      <c r="AP42" t="inlineStr">
-        <is>
-          <t>商品銷售98.39%、智慧財產權授權0.91%、勞務及其他0.70% (2024年)</t>
-        </is>
-      </c>
-      <c r="AQ42" t="inlineStr">
-        <is>
-          <t>美時-生技醫療業-上市</t>
-        </is>
-      </c>
-      <c r="AR42" t="inlineStr">
-        <is>
-          <t>生技醫療業右下</t>
-        </is>
-      </c>
-      <c r="AS42" t="inlineStr">
-        <is>
-          <t>79.81</t>
-        </is>
-      </c>
-      <c r="AT42" t="inlineStr">
-        <is>
-          <t>短增右下</t>
-        </is>
-      </c>
-      <c r="AU42" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="AV42" t="inlineStr">
-        <is>
-          <t>** 製藥 - 中、西藥製劑** 食品生技 - 加工製成品、保健食品代理銷售及通路</t>
         </is>
       </c>
     </row>

--- a/Result/check3/2025-04-16.xlsx
+++ b/Result/check3/2025-04-16.xlsx
@@ -683,17 +683,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>8089</t>
+          <t>9939</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-1.7</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>788.0</t>
+          <t>1297.802</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -703,27 +703,27 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-4.10</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.87</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>4.61</t>
+          <t>24.29</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>58.5</t>
+          <t>154.0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -733,72 +733,72 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>4.57</t>
+          <t>-2.33</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>17</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>1524</t>
+          <t>628</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.02</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>0.20</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>-2.94</t>
+          <t>-2.85</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>-3.69</t>
+          <t>-3.38</t>
         </is>
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>68.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>1.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -813,92 +813,92 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>7</t>
         </is>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>177943.0</t>
+          <t>189924536.0</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
         <is>
-          <t>康全電訊</t>
+          <t>宏全</t>
         </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
-          <t>通信網路業</t>
+          <t>其他</t>
         </is>
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>4.08</t>
+          <t>4.12</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>14.18</t>
+          <t>22.12</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>7.39</t>
+          <t>15.71</t>
         </is>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>27.03%</t>
+          <t>19.59%</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>6.13%</t>
+          <t>8.01%</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>70.93</t>
+          <t>29.73</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>3596</t>
+          <t>44516</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>通訊設備99.57%、其他0.43% (2024年)</t>
+          <t>包裝材料67.38%、飲料(含充填及代工)29.16%、其他3.46% (2024年)</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>康全電訊-通信網路業-上櫃</t>
+          <t>宏全-其他-上市</t>
         </is>
       </c>
       <c r="AR2" t="inlineStr">
         <is>
-          <t>通信網路業平</t>
+          <t>其他右上</t>
         </is>
       </c>
       <c r="AS2" t="inlineStr">
         <is>
-          <t>24.35</t>
+          <t>65.71</t>
         </is>
       </c>
       <c r="AT2" t="inlineStr">
@@ -913,7 +913,7 @@
       </c>
       <c r="AV2" t="inlineStr">
         <is>
-          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)</t>
+          <t>** 石化及塑橡膠 - 塑膠製品</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8072</t>
+          <t>8089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-6.61</t>
+          <t>-1.7</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>16217.778</t>
+          <t>788.0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -945,202 +945,202 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-16.80</t>
+          <t>-4.10</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2.55</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>42.66</t>
+          <t>4.61</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>58.5</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>13.2</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>5339</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>-0.03</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>-2.94</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>-3.69</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>37.5</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>20.8</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>38017</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0.75</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>-1.48</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>0.16</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>0.56</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>2.53</t>
-        </is>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>100.0</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>84.0</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA3" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>1</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>-72088425.0</t>
+          <t>177943.0</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>陞泰</t>
+          <t>康全電訊</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>電子通路業</t>
+          <t>通信網路業</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2.11</t>
+          <t>3.71</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
-          <t>2.93</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="AK3" t="inlineStr">
         <is>
-          <t>37.88</t>
+          <t>8.13</t>
         </is>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>15.01%</t>
+          <t>27.03%</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>-0.15%</t>
+          <t>6.13%</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>72.17</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>3788</t>
+          <t>3954</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>安全監控系統及電子材料100.00% (2024年)</t>
+          <t>通訊設備99.57%、其他0.43% (2024年)</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>陞泰-電子通路業-上市</t>
+          <t>康全電訊-通信網路業-上櫃</t>
         </is>
       </c>
       <c r="AR3" t="inlineStr">
         <is>
-          <t>電子通路業右上</t>
+          <t>通信網路業平</t>
         </is>
       </c>
       <c r="AS3" t="inlineStr">
         <is>
-          <t>28.56</t>
+          <t>24.35</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="AV3" t="inlineStr">
         <is>
-          <t>** 其他 - 其他電子產品及電子服務產業</t>
+          <t>** 通信網路 - 網路設備(如數據機、網路卡、閘道器、路由器、網路電話)、光通訊設備(如光纖電纜、光傳輸設備)</t>
         </is>
       </c>
     </row>
@@ -1167,17 +1167,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>8027</t>
+          <t>8072</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>-6.61</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1621.0</t>
+          <t>16217.778</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -1187,27 +1187,27 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.83</t>
+          <t>-16.80</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>5.71</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>6.28</t>
+          <t>42.66</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.46</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>77.1</t>
+          <t>37.5</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1217,72 +1217,72 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>-4.19</t>
+          <t>27.88</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>19094</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2.89</t>
+          <t>1.31</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>1.47</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.05</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>-0.06</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.56</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>-3.91</t>
+          <t>2.53</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>-4.66</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>66.0</t>
+          <t>33.0</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>11.0</t>
+          <t>84.0</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1297,92 +1297,92 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-10</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>280356.0</t>
+          <t>-72088425.0</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>鈦昇</t>
+          <t>陞泰</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>電機機械</t>
+          <t>電子通路業</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.92</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
         <is>
-          <t>4.16</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="AK4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41.6</t>
         </is>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>38.14%</t>
+          <t>15.01%</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>-6.83%</t>
+          <t>-0.15%</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>71.26</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>8028</t>
+          <t>4160</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>自動化機械78.99%、半導體材料18.53%、軟性印刷電路板(FPC)2.49% (2024年)</t>
+          <t>安全監控系統及電子材料100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>鈦昇-電機機械-上櫃</t>
+          <t>陞泰-電子通路業-上市</t>
         </is>
       </c>
       <c r="AR4" t="inlineStr">
         <is>
-          <t>電機機械平</t>
+          <t>電子通路業右上</t>
         </is>
       </c>
       <c r="AS4" t="inlineStr">
         <is>
-          <t>26.66</t>
+          <t>28.56</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="AV4" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備、生產製程及檢測設備** 電機機械 - 專用機械(如紡織成衣生產用機械、食品飲料生產用機械、農林用機械等)</t>
+          <t>** 其他 - 其他電子產品及電子服務產業</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>46.69</t>
+          <t>25.78</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>23.88</t>
+          <t>30.61</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>1148</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>9.84</t>
+          <t>8.09</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>2.72</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="AK5" t="inlineStr">
         <is>
-          <t>26.43</t>
+          <t>28.99</t>
         </is>
       </c>
       <c r="AL5" t="inlineStr">
@@ -1599,12 +1599,12 @@
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>121.06</t>
+          <t>131.22</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>3087</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
@@ -1651,17 +1651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>6763</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.09</t>
+          <t>-2.28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2236.509</t>
+          <t>600.0</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -1671,27 +1671,27 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>-2.44</t>
+          <t>-3.26</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>38.29</t>
+          <t>2.11</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1.93</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1840.0</t>
+          <t>55.2</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -1701,172 +1701,172 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>3.16</t>
+          <t>4.0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>13</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1069</t>
+          <t>829</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>3.88</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>1.08</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>-1.05</t>
+          <t>3.46</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>-0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>-0.07</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>-48.63</t>
+          <t>-3.19</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>-74.90</t>
+          <t>-3.31</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>-90.0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>39.0</t>
+          <t>11.0</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>13.0</t>
+          <t>-10.0</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
-          <t>-421171938.0</t>
+          <t>111023.0</t>
         </is>
       </c>
       <c r="AF6" t="inlineStr">
         <is>
-          <t>緯穎</t>
+          <t>綠界科技*</t>
         </is>
       </c>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>數位雲端</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>上市</t>
+          <t>上櫃</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>3.89</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>622.11</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr">
         <is>
-          <t>15.5</t>
+          <t>29.64</t>
         </is>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>9.41%</t>
+          <t>40.68%</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>22.63%</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>131.22</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>353096</t>
+          <t>10582</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>資料中心產品100.00% (2024年)</t>
+          <t>全方位金物流服務95.40%、其他4.60% (2024年)</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>緯穎-電腦及週邊設備業-上市</t>
+          <t>綠界科技*-數位雲端-上櫃</t>
         </is>
       </c>
       <c r="AR6" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業平</t>
+          <t>數位雲端右下</t>
         </is>
       </c>
       <c r="AS6" t="inlineStr">
         <is>
-          <t>474.62</t>
+          <t>14.78</t>
         </is>
       </c>
       <c r="AT6" t="inlineStr">
@@ -1876,12 +1876,12 @@
       </c>
       <c r="AU6" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV6" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
+          <t>** 電子商務 - 金流串接處理服務** 金融科技 - 支付</t>
         </is>
       </c>
     </row>
@@ -1893,17 +1893,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>6510</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>-1.09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>532.0</t>
+          <t>2236.509</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1913,27 +1913,27 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>-2.44</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>3.86</t>
+          <t>0.27</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>26.14</t>
+          <t>38.29</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>1.93</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>631.0</t>
+          <t>1840.0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1943,172 +1943,172 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>13.56</t>
+          <t>4.66</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>43</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>1076</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>-5.34</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>-0.10</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>-39.56</t>
+          <t>-48.63</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>-40.58</t>
+          <t>-74.90</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>22.0</t>
+          <t>39.0</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>12.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>774889.0</t>
+          <t>-421171938.0</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>精測</t>
+          <t>緯穎</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>電腦及週邊設備業</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>上櫃</t>
+          <t>上市</t>
         </is>
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
-          <t>39.32</t>
+          <t>622.11</t>
         </is>
       </c>
       <c r="AK7" t="inlineStr">
         <is>
-          <t>46.95</t>
+          <t>15.75</t>
         </is>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>55.73%</t>
+          <t>9.41%</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>27.41%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>62.21</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>23936</t>
+          <t>358671</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
+          <t>資料中心產品100.00% (2024年)</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>精測-半導體業-上櫃</t>
+          <t>緯穎-電腦及週邊設備業-上市</t>
         </is>
       </c>
       <c r="AR7" t="inlineStr">
         <is>
-          <t>半導體業右上</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS7" t="inlineStr">
         <is>
-          <t>245.11</t>
+          <t>474.62</t>
         </is>
       </c>
       <c r="AT7" t="inlineStr">
@@ -2118,12 +2118,12 @@
       </c>
       <c r="AU7" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV7" t="inlineStr">
         <is>
-          <t>** 半導體 - 生產製程及檢測設備</t>
+          <t>** 電腦及週邊設備 - 伺服器** 人工智慧 - 運算設備** 雲端運算 - 伺服器</t>
         </is>
       </c>
     </row>
@@ -2135,17 +2135,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>6462</t>
+          <t>6510</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-2.75</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1186.0</t>
+          <t>532.0</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -2155,27 +2155,27 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>-5.55</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>2.75</t>
+          <t>3.86</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.28</t>
+          <t>26.14</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>97.2</t>
+          <t>631.0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -2185,72 +2185,72 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>15.87</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1033</t>
+          <t>592</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>1.44</t>
+          <t>1.25</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>3.96</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>0.02</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>-0.13</t>
+          <t>-0.10</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0.01</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>-11.21</t>
+          <t>-39.56</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>-11.35</t>
+          <t>-40.58</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>95.0</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>22.0</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>-7.0</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -2270,22 +2270,22 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>-7</t>
+          <t>12</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
-          <t>139800.0</t>
+          <t>774889.0</t>
         </is>
       </c>
       <c r="AF8" t="inlineStr">
         <is>
-          <t>神盾</t>
+          <t>精測</t>
         </is>
       </c>
       <c r="AG8" t="inlineStr">
@@ -2300,57 +2300,57 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
-          <t>17.33</t>
+          <t>39.32</t>
         </is>
       </c>
       <c r="AK8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34.31</t>
         </is>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>41.31%</t>
+          <t>55.73%</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>-30.19%</t>
+          <t>27.41%</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>62.21</t>
+          <t>63.23</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>9993</t>
+          <t>24592</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>商品銷售88.68%、授權8.52%、勞務2.79% (2024年)</t>
+          <t>晶圓測試卡67.25%、IC測試板21.63%、技術服務與其他11.12% (2024年)</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>神盾-半導體業-上櫃</t>
+          <t>精測-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR8" t="inlineStr">
         <is>
-          <t>半導體業右下</t>
+          <t>半導體業右上</t>
         </is>
       </c>
       <c r="AS8" t="inlineStr">
         <is>
-          <t>71.72</t>
+          <t>245.11</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr">
@@ -2365,7 +2365,7 @@
       </c>
       <c r="AV8" t="inlineStr">
         <is>
-          <t>** 軟體服務 - 應用/系統軟體設計開發** 資通訊安全 - 端點安全防護、身分認證與訪問管理** 半導體 - 消費性IC</t>
+          <t>** 半導體 - 生產製程及檢測設備</t>
         </is>
       </c>
     </row>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>6446</t>
+          <t>6462</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-3.2</t>
+          <t>-2.75</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1486.633</t>
+          <t>1186.0</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2397,202 +2397,202 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>-1.73</t>
+          <t>-5.55</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1.38</t>
+          <t>2.75</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>5.28</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>97.2</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>878</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>-0.13</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>-11.21</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>-11.35</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>-7.0</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>490.0</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>-7</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>139800.0</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>神盾</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>半導體業</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>上櫃</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>988</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>5.94</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>1.81</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>-0.01</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>-0.06</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>-31.22</t>
-        </is>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>-32.10</t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>40.0</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>-13.0</t>
-        </is>
-      </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA9" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>2025-04-16</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>2025-04-29</t>
-        </is>
-      </c>
-      <c r="AD9" t="inlineStr">
-        <is>
-          <t>-13</t>
-        </is>
-      </c>
-      <c r="AE9" t="inlineStr">
-        <is>
-          <t>1252735234.0</t>
-        </is>
-      </c>
-      <c r="AF9" t="inlineStr">
-        <is>
-          <t>藥華藥</t>
-        </is>
-      </c>
-      <c r="AG9" t="inlineStr">
-        <is>
-          <t>生技醫療業</t>
-        </is>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>上市</t>
-        </is>
-      </c>
-      <c r="AI9" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
       <c r="AJ9" t="inlineStr">
         <is>
-          <t>9.2</t>
+          <t>17.33</t>
         </is>
       </c>
       <c r="AK9" t="inlineStr">
         <is>
-          <t>57.35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>88.38%</t>
+          <t>41.31%</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>17.68%</t>
+          <t>-30.19%</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>63.23</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>152782</t>
+          <t>10226</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>藥品銷售99.38%、其他0.33%、勞務0.30% (2024年)</t>
+          <t>商品銷售88.68%、授權8.52%、勞務2.79% (2024年)</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>藥華藥-生技醫療業-上市</t>
+          <t>神盾-半導體業-上櫃</t>
         </is>
       </c>
       <c r="AR9" t="inlineStr">
         <is>
-          <t>生技醫療業平</t>
+          <t>半導體業右下</t>
         </is>
       </c>
       <c r="AS9" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>71.72</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr">
@@ -2602,12 +2602,12 @@
       </c>
       <c r="AU9" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="AV9" t="inlineStr">
         <is>
-          <t>** 製藥 - 原材料</t>
+          <t>** 軟體服務 - 應用/系統軟體設計開發** 資通訊安全 - 端點安全防護、身分認證與訪問管理** 半導體 - 消費性IC</t>
         </is>
       </c>
     </row>
@@ -2619,17 +2619,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>6415</t>
+          <t>6446</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-3.2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3398.195</t>
+          <t>1486.633</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2639,27 +2639,27 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>-0.93</t>
+          <t>-1.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.75</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>29.97</t>
+          <t>9.92</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>417.5</t>
+          <t>490.0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2669,72 +2669,72 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>-2.08</t>
+          <t>7.89</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>77</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>4108</t>
+          <t>2435</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>4.59</t>
+          <t>5.94</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>-2.20</t>
+          <t>2.79</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>-0.02</t>
+          <t>-0.06</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>-7.15</t>
+          <t>-31.22</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>-9.96</t>
+          <t>-32.10</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>-40.0</t>
+          <t>40.0</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>74.0</t>
+          <t>10.0</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>-4.0</t>
+          <t>-13.0</t>
         </is>
       </c>
       <c r="Z10" t="inlineStr">
@@ -2749,32 +2749,32 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD10" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-13</t>
         </is>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>2439779131.0</t>
+          <t>1252735234.0</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
         <is>
-          <t>矽力*-KY</t>
+          <t>藥華藥</t>
         </is>
       </c>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>半導體業</t>
+          <t>生技醫療業</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
@@ -2784,57 +2784,57 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>9.2</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>69.2</t>
+          <t>59.71</t>
         </is>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>55.38%</t>
+          <t>88.38%</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>18.07%</t>
+          <t>17.68%</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>146.15</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>158460</t>
+          <t>159061</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
+          <t>藥品銷售99.38%、其他0.33%、勞務0.30% (2024年)</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>矽力*-KY-半導體業-上市</t>
+          <t>藥華藥-生技醫療業-上市</t>
         </is>
       </c>
       <c r="AR10" t="inlineStr">
         <is>
-          <t>半導體業平</t>
+          <t>生技醫療業平</t>
         </is>
       </c>
       <c r="AS10" t="inlineStr">
         <is>
-          <t>91.01</t>
+          <t>82.52</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr">
@@ -2844,12 +2844,12 @@
       </c>
       <c r="AU10" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="AV10" t="inlineStr">
         <is>
-          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
+          <t>** 製藥 - 原材料</t>
         </is>
       </c>
     </row>
@@ -2861,17 +2861,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>6235</t>
+          <t>6415</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.16</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1434.358</t>
+          <t>3398.195</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2881,142 +2881,142 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>-4.35</t>
+          <t>-0.93</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>5.75</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>29.97</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>417.5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>-2.2</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2877</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>-2.94</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>-0.02</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>-7.15</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>-9.96</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>-40.0</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>-4.0</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>47.15</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>4.65</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>1.06</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>-0.11</t>
-        </is>
-      </c>
-      <c r="T11" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>-4.20</t>
-        </is>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>-4.31</t>
-        </is>
-      </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>-90.0</t>
-        </is>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>20.0</t>
-        </is>
-      </c>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>14.0</t>
-        </is>
-      </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA11" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>-4</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>83360188.0</t>
+          <t>2439779131.0</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
         <is>
-          <t>華孚</t>
+          <t>矽力*-KY</t>
         </is>
       </c>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業</t>
+          <t>半導體業</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -3026,57 +3026,57 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>2.47</t>
+          <t>0.59</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>6.23</t>
+          <t>13.2</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>16.65</t>
+          <t>69.12</t>
         </is>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>24.51%</t>
+          <t>55.38%</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>1.94%</t>
+          <t>18.07%</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>9881</t>
+          <t>158266</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>鎂,鋁合金成型製品及模具98.24%、塑膠射出1.76% (2024年)</t>
+          <t>積體電路(IC)99.45%、勞務0.55% (2024年)</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>華孚-電腦及週邊設備業-上市</t>
+          <t>矽力*-KY-半導體業-上市</t>
         </is>
       </c>
       <c r="AR11" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>半導體業平</t>
         </is>
       </c>
       <c r="AS11" t="inlineStr">
         <is>
-          <t>23.81</t>
+          <t>91.01</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr">
@@ -3091,7 +3091,7 @@
       </c>
       <c r="AV11" t="inlineStr">
         <is>
-          <t>** 電腦及週邊設備 - 機殼、金屬、塑膠模具** 石化及塑橡膠 - 塑膠製品</t>
+          <t>** 半導體 - LED驅動IC、光源管理IC、電源管理IC</t>
         </is>
       </c>
     </row>
@@ -3153,17 +3153,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>7.57</t>
+          <t>6.17</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>858</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>-3.53</t>
+          <t>-0.88</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
@@ -3268,7 +3268,7 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.27</t>
         </is>
       </c>
       <c r="AJ12" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="AK12" t="inlineStr">
         <is>
-          <t>19.2</t>
+          <t>18.92</t>
         </is>
       </c>
       <c r="AL12" t="inlineStr">
@@ -3293,12 +3293,12 @@
       </c>
       <c r="AN12" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>8414</t>
+          <t>8289</t>
         </is>
       </c>
       <c r="AP12" t="inlineStr">
@@ -3395,17 +3395,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>10.67</t>
+          <t>11.4</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>276</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>51498</t>
+          <t>84019</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>9.92</t>
+          <t>-7.59</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
@@ -3480,7 +3480,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>1.89</t>
+          <t>1.87</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3520,7 +3520,7 @@
       </c>
       <c r="AK13" t="inlineStr">
         <is>
-          <t>47.47</t>
+          <t>47.86</t>
         </is>
       </c>
       <c r="AL13" t="inlineStr">
@@ -3535,12 +3535,12 @@
       </c>
       <c r="AN13" t="inlineStr">
         <is>
-          <t>28.87</t>
+          <t>29.12</t>
         </is>
       </c>
       <c r="AO13" t="inlineStr">
         <is>
-          <t>3407</t>
+          <t>3435</t>
         </is>
       </c>
       <c r="AP13" t="inlineStr">
@@ -3637,17 +3637,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>6.93</t>
+          <t>7.3</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>564</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -3722,7 +3722,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD14" t="inlineStr">
@@ -3752,7 +3752,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>4.55</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>28.06</t>
+          <t>28.17</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
@@ -3777,12 +3777,12 @@
       </c>
       <c r="AN14" t="inlineStr">
         <is>
-          <t>104.31</t>
+          <t>107.71</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>2917</t>
+          <t>2929</t>
         </is>
       </c>
       <c r="AP14" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>90</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>4335</t>
+          <t>9848</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -3904,7 +3904,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.26</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3934,7 +3934,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>-99.0</t>
+          <t>-95.0</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD15" t="inlineStr">
@@ -3994,7 +3994,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.15</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4004,7 +4004,7 @@
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>18.97</t>
+          <t>19.13</t>
         </is>
       </c>
       <c r="AL15" t="inlineStr">
@@ -4019,12 +4019,12 @@
       </c>
       <c r="AN15" t="inlineStr">
         <is>
-          <t>12.58</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>363859</t>
+          <t>366903</t>
         </is>
       </c>
       <c r="AP15" t="inlineStr">
@@ -4121,17 +4121,17 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>10.11</t>
+          <t>18.23</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>3573</t>
+          <t>2945</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -4141,12 +4141,12 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0.27</t>
+          <t>0.29</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>-3.75</t>
+          <t>7.60</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -4206,7 +4206,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4246,7 +4246,7 @@
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>23.18</t>
+          <t>25.48</t>
         </is>
       </c>
       <c r="AL16" t="inlineStr">
@@ -4261,12 +4261,12 @@
       </c>
       <c r="AN16" t="inlineStr">
         <is>
-          <t>30.3</t>
+          <t>31.17</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>5690</t>
+          <t>6255</t>
         </is>
       </c>
       <c r="AP16" t="inlineStr">
@@ -4363,17 +4363,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>4.07</t>
+          <t>5.35</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>101</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>956</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>-0.34</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -4448,7 +4448,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD17" t="inlineStr">
@@ -4503,12 +4503,12 @@
       </c>
       <c r="AN17" t="inlineStr">
         <is>
-          <t>70.15</t>
+          <t>71.04</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>2106</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="AP17" t="inlineStr">
@@ -4605,17 +4605,17 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>6.38</t>
+          <t>7.48</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>509</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
@@ -4625,12 +4625,12 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.87</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3.17</t>
+          <t>2.39</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
@@ -4690,7 +4690,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD18" t="inlineStr">
@@ -4720,7 +4720,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -4730,7 +4730,7 @@
       </c>
       <c r="AK18" t="inlineStr">
         <is>
-          <t>13.15</t>
+          <t>13.31</t>
         </is>
       </c>
       <c r="AL18" t="inlineStr">
@@ -4745,12 +4745,12 @@
       </c>
       <c r="AN18" t="inlineStr">
         <is>
-          <t>146.15</t>
+          <t>150.22</t>
         </is>
       </c>
       <c r="AO18" t="inlineStr">
         <is>
-          <t>25645</t>
+          <t>25948</t>
         </is>
       </c>
       <c r="AP18" t="inlineStr">
@@ -4847,17 +4847,17 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>-0.45</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>23</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>3485</t>
+          <t>3167</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
@@ -4872,7 +4872,7 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>5.90</t>
+          <t>1.58</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
@@ -4962,7 +4962,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="AK19" t="inlineStr">
         <is>
-          <t>15.26</t>
+          <t>15.13</t>
         </is>
       </c>
       <c r="AL19" t="inlineStr">
@@ -4987,12 +4987,12 @@
       </c>
       <c r="AN19" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="AO19" t="inlineStr">
         <is>
-          <t>17850</t>
+          <t>17690</t>
         </is>
       </c>
       <c r="AP19" t="inlineStr">
@@ -5089,17 +5089,17 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>10.98</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>715</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>-0.96</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
@@ -5174,7 +5174,7 @@
       </c>
       <c r="AC20" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD20" t="inlineStr">
@@ -5204,7 +5204,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>1.42</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="AK20" t="inlineStr">
         <is>
-          <t>42.54</t>
+          <t>42.74</t>
         </is>
       </c>
       <c r="AL20" t="inlineStr">
@@ -5229,12 +5229,12 @@
       </c>
       <c r="AN20" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO20" t="inlineStr">
         <is>
-          <t>145779</t>
+          <t>146494</t>
         </is>
       </c>
       <c r="AP20" t="inlineStr">
@@ -5331,17 +5331,17 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>10.14</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>574</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -5356,7 +5356,7 @@
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>-3.70</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
@@ -5416,7 +5416,7 @@
       </c>
       <c r="AC21" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD21" t="inlineStr">
@@ -5446,7 +5446,7 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="AJ21" t="inlineStr">
@@ -5456,7 +5456,7 @@
       </c>
       <c r="AK21" t="inlineStr">
         <is>
-          <t>104.4</t>
+          <t>105.21</t>
         </is>
       </c>
       <c r="AL21" t="inlineStr">
@@ -5471,12 +5471,12 @@
       </c>
       <c r="AN21" t="inlineStr">
         <is>
-          <t>62.21</t>
+          <t>63.23</t>
         </is>
       </c>
       <c r="AO21" t="inlineStr">
         <is>
-          <t>191513</t>
+          <t>193006</t>
         </is>
       </c>
       <c r="AP21" t="inlineStr">
@@ -5573,17 +5573,17 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>15.28</t>
+          <t>22.96</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>83</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>11296</t>
+          <t>8330</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -5593,12 +5593,12 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>1.03</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>-3.10</t>
+          <t>12.01</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
@@ -5628,7 +5628,7 @@
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -5658,7 +5658,7 @@
       </c>
       <c r="AC22" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD22" t="inlineStr">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>6.64</t>
+          <t>6.04</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>7.7</t>
+          <t>8.47</t>
         </is>
       </c>
       <c r="AL22" t="inlineStr">
@@ -5713,12 +5713,12 @@
       </c>
       <c r="AN22" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>4812</t>
+          <t>5292</t>
         </is>
       </c>
       <c r="AP22" t="inlineStr">
@@ -5815,17 +5815,17 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>12.97</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>19</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>1128</t>
+          <t>2190</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>3.07</t>
+          <t>7.22</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -5955,12 +5955,12 @@
       </c>
       <c r="AN23" t="inlineStr">
         <is>
-          <t>75.14</t>
+          <t>78.33</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>1244</t>
+          <t>1334</t>
         </is>
       </c>
       <c r="AP23" t="inlineStr">
@@ -6057,17 +6057,17 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>62</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>6318</t>
+          <t>8085</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>-0.67</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
@@ -6112,7 +6112,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>65.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="AC24" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD24" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>5.32</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="AK24" t="inlineStr">
         <is>
-          <t>16.59</t>
+          <t>17.09</t>
         </is>
       </c>
       <c r="AL24" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="AN24" t="inlineStr">
         <is>
-          <t>62.21</t>
+          <t>63.23</t>
         </is>
       </c>
       <c r="AO24" t="inlineStr">
         <is>
-          <t>35782</t>
+          <t>36861</t>
         </is>
       </c>
       <c r="AP24" t="inlineStr">
@@ -6299,17 +6299,17 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>1,356</t>
+          <t>1,220</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>21311</t>
+          <t>13877</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>-1.46</t>
+          <t>1.96</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -6414,7 +6414,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>3.71</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -6424,7 +6424,7 @@
       </c>
       <c r="AK25" t="inlineStr">
         <is>
-          <t>17.0</t>
+          <t>17.25</t>
         </is>
       </c>
       <c r="AL25" t="inlineStr">
@@ -6439,12 +6439,12 @@
       </c>
       <c r="AN25" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO25" t="inlineStr">
         <is>
-          <t>296680</t>
+          <t>301021</t>
         </is>
       </c>
       <c r="AP25" t="inlineStr">
@@ -6541,17 +6541,17 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>10.6</t>
+          <t>11.25</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>151</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>28568</t>
+          <t>23188</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
@@ -6566,7 +6566,7 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>1.96</t>
+          <t>1.06</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
@@ -6626,7 +6626,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -6656,7 +6656,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>1.56</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -6666,7 +6666,7 @@
       </c>
       <c r="AK26" t="inlineStr">
         <is>
-          <t>40.9</t>
+          <t>41.2</t>
         </is>
       </c>
       <c r="AL26" t="inlineStr">
@@ -6681,12 +6681,12 @@
       </c>
       <c r="AN26" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>145784</t>
+          <t>146855</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr">
@@ -6783,17 +6783,17 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>13.85</t>
+          <t>13.48</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>50</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>10855</t>
+          <t>5686</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -6808,7 +6808,7 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
@@ -6868,7 +6868,7 @@
       </c>
       <c r="AC27" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD27" t="inlineStr">
@@ -6898,7 +6898,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.22</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -6908,7 +6908,7 @@
       </c>
       <c r="AK27" t="inlineStr">
         <is>
-          <t>15.87</t>
+          <t>15.8</t>
         </is>
       </c>
       <c r="AL27" t="inlineStr">
@@ -6923,12 +6923,12 @@
       </c>
       <c r="AN27" t="inlineStr">
         <is>
-          <t>16.29</t>
+          <t>16.68</t>
         </is>
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>129030</t>
+          <t>128472</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr">
@@ -7025,17 +7025,17 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>2.6</t>
+          <t>4.73</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>136</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>13299</t>
+          <t>21314</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
@@ -7050,7 +7050,7 @@
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>-3.35</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -7110,7 +7110,7 @@
       </c>
       <c r="AC28" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD28" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>2.97</t>
+          <t>2.91</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7150,7 +7150,7 @@
       </c>
       <c r="AK28" t="inlineStr">
         <is>
-          <t>23.23</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="AL28" t="inlineStr">
@@ -7165,12 +7165,12 @@
       </c>
       <c r="AN28" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>37558</t>
+          <t>38396</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr">
@@ -7217,17 +7217,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2836</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-3.27</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>28802.707</t>
+          <t>1113.395</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -7237,27 +7237,27 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>-0.58</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>3.42</t>
+          <t>1.29</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>9.29</t>
+          <t>9.90</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.51</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>83.3</t>
+          <t>11.45</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -7267,72 +7267,72 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>-1.22</t>
+          <t>2.55</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>7</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>7361</t>
+          <t>1662</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>1.01</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>-0.36</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>0.06</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>-0.03</t>
+          <t>-0.01</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>-0.44</t>
+          <t>-0.12</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>-0.92</t>
+          <t>-0.13</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>-50.0</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>99.0</t>
+          <t>9.0</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>23.0</t>
+          <t>5.0</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -7347,32 +7347,32 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2025-04-16</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>5</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>6474594954.0</t>
+          <t>57008677.0</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>高雄銀</t>
         </is>
       </c>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>航運業</t>
+          <t>金融保險</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
@@ -7382,57 +7382,57 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>4.25</t>
+          <t>5.11</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>0.6</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>22.17</t>
         </is>
       </c>
       <c r="AL29" t="inlineStr">
         <is>
-          <t>33.80%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
-          <t>31.43%</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AN29" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>230946</t>
+          <t>20989</t>
         </is>
       </c>
       <c r="AP29" t="inlineStr">
         <is>
-          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
+          <t>利息淨收益66.79%、手續費淨收益20.57%、透過損益按公允價值衡量之金9.37%、透過其他綜合損益按公允價值3.98%、其他利息以外淨收益1.27%、除列按攤銷後成本衡量金融資1.07% (2024年)</t>
         </is>
       </c>
       <c r="AQ29" t="inlineStr">
         <is>
-          <t>萬海-航運業-上市</t>
+          <t>高雄銀-金融保險-上市</t>
         </is>
       </c>
       <c r="AR29" t="inlineStr">
         <is>
-          <t>航運業右上</t>
+          <t>金融保險右下</t>
         </is>
       </c>
       <c r="AS29" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>13.7</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr">
@@ -7447,7 +7447,7 @@
       </c>
       <c r="AV29" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃航運</t>
+          <t>** 金融 - 金控業/銀行業/保險業</t>
         </is>
       </c>
     </row>
@@ -7459,17 +7459,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2613</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>-3.97</t>
+          <t>-3.27</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2498.377</t>
+          <t>28802.707</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -7479,27 +7479,27 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>-1.32</t>
+          <t>-0.58</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3.73</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>5.36</t>
+          <t>9.29</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>1.43</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>30.0</t>
+          <t>83.3</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -7509,72 +7509,72 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>-2.39</t>
+          <t>-1.34</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>44</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>7030</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>1.26</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>1.0</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>3.59</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>-0.05</t>
+          <t>-0.03</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>0.16</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>-1.18</t>
+          <t>-0.44</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>-1.40</t>
+          <t>-0.92</t>
         </is>
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>40.0</t>
+          <t>90.0</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>244.0</t>
+          <t>99.0</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>50.0</t>
+          <t>23.0</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
@@ -7594,22 +7594,22 @@
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>264163330.0</t>
+          <t>6474594954.0</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
         <is>
-          <t>中櫃</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="AG30" t="inlineStr">
@@ -7624,57 +7624,57 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>4.26</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>6.07</t>
+          <t>14.8</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>34.88</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="AL30" t="inlineStr">
         <is>
-          <t>17.27%</t>
+          <t>33.80%</t>
         </is>
       </c>
       <c r="AM30" t="inlineStr">
         <is>
-          <t>11.12%</t>
+          <t>31.43%</t>
         </is>
       </c>
       <c r="AN30" t="inlineStr">
         <is>
-          <t>16.34</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>4349</t>
+          <t>230665</t>
         </is>
       </c>
       <c r="AP30" t="inlineStr">
         <is>
-          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
+          <t>運費98.11%、其他勞務1.23%、專用碼頭0.64%、租金收入0.02% (2024年)</t>
         </is>
       </c>
       <c r="AQ30" t="inlineStr">
         <is>
-          <t>中櫃-航運業-上市</t>
+          <t>萬海-航運業-上市</t>
         </is>
       </c>
       <c r="AR30" t="inlineStr">
         <is>
-          <t>航運業平</t>
+          <t>航運業右上</t>
         </is>
       </c>
       <c r="AS30" t="inlineStr">
         <is>
-          <t>23.76</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr">
@@ -7689,7 +7689,7 @@
       </c>
       <c r="AV30" t="inlineStr">
         <is>
-          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
+          <t>** 交通運輸及航運 - 貨櫃航運</t>
         </is>
       </c>
     </row>
@@ -7701,17 +7701,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2539</t>
+          <t>2613</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>-3.97</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1007.173</t>
+          <t>2498.377</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -7721,142 +7721,142 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-0.30</t>
+          <t>-1.32</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>-3.27</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>613</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-0.05</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>-1.18</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>-1.40</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>63.0</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-2.27</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>707</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>4.38</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>0.7</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>1.17</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="U31" t="inlineStr">
-        <is>
-          <t>2.20</t>
-        </is>
-      </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>65.0</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>10.0</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>41.0</t>
-        </is>
-      </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA31" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>2025-02-21</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>2025-04-28</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>239294741.0</t>
+          <t>264163330.0</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
         <is>
-          <t>櫻花建</t>
+          <t>中櫃</t>
         </is>
       </c>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>建材營造</t>
+          <t>航運業</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr">
@@ -7866,57 +7866,57 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>21.61</t>
+          <t>34.58</t>
         </is>
       </c>
       <c r="AL31" t="inlineStr">
         <is>
-          <t>46.98%</t>
+          <t>17.27%</t>
         </is>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
-          <t>42.67%</t>
+          <t>11.12%</t>
         </is>
       </c>
       <c r="AN31" t="inlineStr">
         <is>
-          <t>45.38</t>
+          <t>16.36</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>61246</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="AP31" t="inlineStr">
         <is>
-          <t>房地銷售99.91%、其他0.09% (2024年)</t>
+          <t>碼頭87.83%、其他5.76%、貨櫃場5.63%、其他租賃業務0.77% (2024年)</t>
         </is>
       </c>
       <c r="AQ31" t="inlineStr">
         <is>
-          <t>櫻花建-建材營造-上市</t>
+          <t>中櫃-航運業-上市</t>
         </is>
       </c>
       <c r="AR31" t="inlineStr">
         <is>
-          <t>建材營造右上</t>
+          <t>航運業平</t>
         </is>
       </c>
       <c r="AS31" t="inlineStr">
         <is>
-          <t>14.37</t>
+          <t>23.76</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="AV31" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建設業</t>
+          <t>** 交通運輸及航運 - 貨櫃運輸集散及倉儲</t>
         </is>
       </c>
     </row>
@@ -7993,17 +7993,17 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>-11.76</t>
+          <t>-13.96</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>873</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>3409</t>
+          <t>3478</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>-7.58</t>
+          <t>-1.16</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
@@ -8133,12 +8133,12 @@
       </c>
       <c r="AN32" t="inlineStr">
         <is>
-          <t>75.89</t>
+          <t>77.46</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>16031</t>
+          <t>15723</t>
         </is>
       </c>
       <c r="AP32" t="inlineStr">
@@ -8235,17 +8235,17 @@
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>2.26</t>
+          <t>-0.33</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>624</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -8260,7 +8260,7 @@
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>2.07</t>
+          <t>1.38</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
@@ -8290,7 +8290,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>90.0</t>
+          <t>65.0</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -8320,7 +8320,7 @@
       </c>
       <c r="AC33" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD33" t="inlineStr">
@@ -8375,12 +8375,12 @@
       </c>
       <c r="AN33" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>2156</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="AP33" t="inlineStr">
@@ -8477,17 +8477,17 @@
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>7.18</t>
+          <t>8.5</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>869</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -8502,7 +8502,7 @@
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>-0.17</t>
+          <t>2.93</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
@@ -8562,7 +8562,7 @@
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -8592,7 +8592,7 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>3.05</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="AJ34" t="inlineStr">
@@ -8602,7 +8602,7 @@
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>20.16</t>
+          <t>20.45</t>
         </is>
       </c>
       <c r="AL34" t="inlineStr">
@@ -8617,12 +8617,12 @@
       </c>
       <c r="AN34" t="inlineStr">
         <is>
-          <t>26.44</t>
+          <t>27.04</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>192288</t>
+          <t>195050</t>
         </is>
       </c>
       <c r="AP34" t="inlineStr">
@@ -8719,17 +8719,17 @@
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>7.35</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>412</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>30797</t>
+          <t>13002</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -8744,7 +8744,7 @@
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>-0.62</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
@@ -8804,7 +8804,7 @@
       </c>
       <c r="AC35" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD35" t="inlineStr">
@@ -8834,7 +8834,7 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>5.31</t>
+          <t>5.36</t>
         </is>
       </c>
       <c r="AJ35" t="inlineStr">
@@ -8844,7 +8844,7 @@
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>15.82</t>
+          <t>15.66</t>
         </is>
       </c>
       <c r="AL35" t="inlineStr">
@@ -8859,12 +8859,12 @@
       </c>
       <c r="AN35" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>946344</t>
+          <t>936687</t>
         </is>
       </c>
       <c r="AP35" t="inlineStr">
@@ -8961,17 +8961,17 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>2.65</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>259</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>8623</t>
+          <t>14764</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>-50.0</t>
+          <t>-40.0</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
@@ -9046,7 +9046,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD36" t="inlineStr">
@@ -9076,7 +9076,7 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>4.1</t>
         </is>
       </c>
       <c r="AJ36" t="inlineStr">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="AK36" t="inlineStr">
         <is>
-          <t>20.05</t>
+          <t>20.44</t>
         </is>
       </c>
       <c r="AL36" t="inlineStr">
@@ -9101,12 +9101,12 @@
       </c>
       <c r="AN36" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO36" t="inlineStr">
         <is>
-          <t>146010</t>
+          <t>148880</t>
         </is>
       </c>
       <c r="AP36" t="inlineStr">
@@ -9121,7 +9121,7 @@
       </c>
       <c r="AR36" t="inlineStr">
         <is>
-          <t>電腦及週邊設備業右下</t>
+          <t>電腦及週邊設備業平</t>
         </is>
       </c>
       <c r="AS36" t="inlineStr">
@@ -9203,17 +9203,17 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>5.03</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>167</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>4046</t>
+          <t>7249</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
@@ -9228,7 +9228,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>0.99</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
@@ -9318,7 +9318,7 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>4.82</t>
+          <t>4.8</t>
         </is>
       </c>
       <c r="AJ37" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="AK37" t="inlineStr">
         <is>
-          <t>18.02</t>
+          <t>18.07</t>
         </is>
       </c>
       <c r="AL37" t="inlineStr">
@@ -9343,12 +9343,12 @@
       </c>
       <c r="AN37" t="inlineStr">
         <is>
-          <t>92.79</t>
+          <t>95.62</t>
         </is>
       </c>
       <c r="AO37" t="inlineStr">
         <is>
-          <t>219468</t>
+          <t>220172</t>
         </is>
       </c>
       <c r="AP37" t="inlineStr">
@@ -9395,17 +9395,17 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2101</t>
+          <t>2231</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>-1.61</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1384.636</t>
+          <t>686.572</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -9415,142 +9415,142 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>-1.62</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>1.62</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>18.61</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>88.5</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>873</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-0.01</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-2.50</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>-3.70</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>-90.0</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>37.0</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1.2</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>2071</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>3.60</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>-0.08</t>
-        </is>
-      </c>
-      <c r="T38" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>-2.31</t>
-        </is>
-      </c>
-      <c r="V38" t="inlineStr">
-        <is>
-          <t>-2.38</t>
-        </is>
-      </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>-65.0</t>
-        </is>
-      </c>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>5.0</t>
-        </is>
-      </c>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA38" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
       <c r="AB38" t="inlineStr">
         <is>
-          <t>2025-04-16</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>171989568.0</t>
+          <t>260848234.0</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
         <is>
-          <t>南港</t>
+          <t>為升</t>
         </is>
       </c>
       <c r="AG38" t="inlineStr">
         <is>
-          <t>橡膠工業</t>
+          <t>汽車工業</t>
         </is>
       </c>
       <c r="AH38" t="inlineStr">
@@ -9560,57 +9560,57 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>1.34</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>10.45</t>
         </is>
       </c>
       <c r="AK38" t="inlineStr">
         <is>
-          <t>10.58</t>
+          <t>27.09</t>
         </is>
       </c>
       <c r="AL38" t="inlineStr">
         <is>
-          <t>20.69%</t>
+          <t>31.32%</t>
         </is>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
-          <t>4.53%</t>
+          <t>8.59%</t>
         </is>
       </c>
       <c r="AN38" t="inlineStr">
         <is>
-          <t>19.17</t>
+          <t>19.37</t>
         </is>
       </c>
       <c r="AO38" t="inlineStr">
         <is>
-          <t>31231</t>
+          <t>12866</t>
         </is>
       </c>
       <c r="AP38" t="inlineStr">
         <is>
-          <t>輪胎59.11%、房地產40.89% (2024年)</t>
+          <t>通訊設備及工程及其他51.67%、汽車安全件及系統24.44%、汽車電機開關23.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ38" t="inlineStr">
         <is>
-          <t>南港-橡膠工業-上市</t>
+          <t>為升-汽車工業-上市</t>
         </is>
       </c>
       <c r="AR38" t="inlineStr">
         <is>
-          <t>橡膠工業右下</t>
+          <t>汽車工業右下</t>
         </is>
       </c>
       <c r="AS38" t="inlineStr">
         <is>
-          <t>16.27</t>
+          <t>30.48</t>
         </is>
       </c>
       <c r="AT38" t="inlineStr">
@@ -9625,7 +9625,7 @@
       </c>
       <c r="AV38" t="inlineStr">
         <is>
-          <t>** 汽車 - 輪胎</t>
+          <t>** 汽車 - 整車組裝、修理及技術服務</t>
         </is>
       </c>
     </row>
@@ -9637,17 +9637,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>2101</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>1.35</t>
+          <t>-1.61</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>5193.331</t>
+          <t>1384.636</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -9657,142 +9657,142 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>-1.62</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>1905</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>20.54</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-0.08</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>-2.31</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>-2.38</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>-65.0</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
         <is>
           <t>0.0</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>11.2</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>2025-04-16</t>
+        </is>
+      </c>
+      <c r="AC39" t="inlineStr">
+        <is>
+          <t>2025-04-30</t>
+        </is>
+      </c>
+      <c r="AD39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>-1.82</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>2031</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-0.89</t>
-        </is>
-      </c>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="T39" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>50.0</t>
-        </is>
-      </c>
-      <c r="X39" t="inlineStr">
-        <is>
-          <t>33.0</t>
-        </is>
-      </c>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>91.0</t>
-        </is>
-      </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="AA39" t="inlineStr">
-        <is>
-          <t>0.0</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>2025-04-02</t>
-        </is>
-      </c>
-      <c r="AC39" t="inlineStr">
-        <is>
-          <t>2025-04-28</t>
-        </is>
-      </c>
-      <c r="AD39" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>83328965.0</t>
+          <t>171989568.0</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
         <is>
-          <t>冠軍</t>
+          <t>南港</t>
         </is>
       </c>
       <c r="AG39" t="inlineStr">
         <is>
-          <t>玻璃陶瓷</t>
+          <t>橡膠工業</t>
         </is>
       </c>
       <c r="AH39" t="inlineStr">
@@ -9802,57 +9802,57 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>9.09</t>
+          <t>1.3</t>
         </is>
       </c>
       <c r="AJ39" t="inlineStr">
         <is>
-          <t>2.22</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="AK39" t="inlineStr">
         <is>
-          <t>35.48</t>
+          <t>10.83</t>
         </is>
       </c>
       <c r="AL39" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>20.69%</t>
         </is>
       </c>
       <c r="AM39" t="inlineStr">
         <is>
-          <t>9.98%</t>
+          <t>4.53%</t>
         </is>
       </c>
       <c r="AN39" t="inlineStr">
         <is>
-          <t>47.49</t>
+          <t>19.35</t>
         </is>
       </c>
       <c r="AO39" t="inlineStr">
         <is>
-          <t>4294</t>
+          <t>31981</t>
         </is>
       </c>
       <c r="AP39" t="inlineStr">
         <is>
-          <t>石板磚49.45%、石英地磚22.96%、外牆磚18.65%、其他7.89%、地磚0.91%、壁磚0.14% (2024年)</t>
+          <t>輪胎59.11%、房地產40.89% (2024年)</t>
         </is>
       </c>
       <c r="AQ39" t="inlineStr">
         <is>
-          <t>冠軍-玻璃陶瓷-上市</t>
+          <t>南港-橡膠工業-上市</t>
         </is>
       </c>
       <c r="AR39" t="inlineStr">
         <is>
-          <t>玻璃陶瓷右上</t>
+          <t>橡膠工業右下</t>
         </is>
       </c>
       <c r="AS39" t="inlineStr">
         <is>
-          <t>14.4</t>
+          <t>16.27</t>
         </is>
       </c>
       <c r="AT39" t="inlineStr">
@@ -9867,7 +9867,7 @@
       </c>
       <c r="AV39" t="inlineStr">
         <is>
-          <t>** 建材營造 - 建材原料</t>
+          <t>** 汽車 - 輪胎</t>
         </is>
       </c>
     </row>
@@ -9934,12 +9934,12 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>1054</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>1.64</t>
+          <t>-0.90</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -10014,7 +10014,7 @@
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>2025-04-29</t>
+          <t>2025-04-30</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
@@ -10069,7 +10069,7 @@
       </c>
       <c r="AN40" t="inlineStr">
         <is>
-          <t>38.26</t>
+          <t>38.69</t>
         </is>
       </c>
       <c r="AO40" t="inlineStr">
